--- a/data/Harms_UAF_sampled_220526.xlsx
+++ b/data/Harms_UAF_sampled_220526.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Research/AK/BLaST geohealth/geology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Research/AK/RockN/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6E9F7-3BEB-E047-B728-6D83BAA0812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883C5354-B0E1-EC47-B0C5-1BFCE38B0AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="42480" windowHeight="28300" xr2:uid="{6AAB6FBD-11A4-9646-8C23-5D0B61F2D7F7}"/>
+    <workbookView xWindow="6400" yWindow="4100" windowWidth="38400" windowHeight="21100" xr2:uid="{6AAB6FBD-11A4-9646-8C23-5D0B61F2D7F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1665,10 +1666,10 @@
   <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1808,27 +1809,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="J2" s="3">
         <v>33239</v>
@@ -1837,19 +1838,19 @@
         <v>75</v>
       </c>
       <c r="M2">
-        <v>288094</v>
+        <v>288136</v>
       </c>
       <c r="N2">
-        <v>3468</v>
+        <v>2468</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="P2">
-        <v>64.88</v>
+        <v>67.14</v>
       </c>
       <c r="Q2">
-        <v>-145.59</v>
+        <v>-149.4</v>
       </c>
       <c r="R2" t="s">
         <v>70</v>
@@ -1858,19 +1859,19 @@
         <v>91</v>
       </c>
       <c r="V2">
-        <v>3819</v>
+        <v>3328</v>
       </c>
       <c r="W2">
-        <v>3819</v>
+        <v>3328</v>
       </c>
       <c r="X2" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="Y2">
-        <v>64.881</v>
+        <v>67.144999999999996</v>
       </c>
       <c r="Z2">
-        <v>-145.58600000000001</v>
+        <v>-149.39699999999999</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1882,19 +1883,19 @@
         <v>92</v>
       </c>
       <c r="AE2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="AF2">
-        <v>3468</v>
+        <v>2469</v>
       </c>
       <c r="AK2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.10000000000000053</v>
+        <v>1.1000000000000005</v>
       </c>
       <c r="AM2" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="51" x14ac:dyDescent="0.2">
@@ -1902,245 +1903,242 @@
         <v>114</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="J3" s="3">
-        <v>37870</v>
+        <v>37961</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="M3">
-        <v>289099</v>
+        <v>279577</v>
       </c>
       <c r="N3">
-        <v>10636</v>
+        <v>10903</v>
       </c>
       <c r="O3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P3">
-        <v>65.61</v>
+        <v>65.62</v>
       </c>
       <c r="Q3">
-        <v>-148.75</v>
+        <v>-148.27000000000001</v>
       </c>
       <c r="R3" t="s">
         <v>70</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="V3">
-        <v>12830</v>
+        <v>12538</v>
       </c>
       <c r="W3">
-        <v>12830</v>
+        <v>12538</v>
       </c>
       <c r="X3" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="Y3">
-        <v>65.615075963999999</v>
+        <v>65.618783715999996</v>
       </c>
       <c r="Z3">
-        <v>-148.75178182499999</v>
+        <v>-148.25366491299999</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="s">
         <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="AF3">
-        <v>10636</v>
+        <v>10903</v>
       </c>
       <c r="AK3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AL3">
-        <v>0.5</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="289" x14ac:dyDescent="0.2">
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="3">
-        <v>40909</v>
+        <v>187</v>
+      </c>
+      <c r="J4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" t="s">
+        <v>197</v>
       </c>
       <c r="L4" t="s">
         <v>75</v>
       </c>
       <c r="M4">
-        <v>673486</v>
+        <v>688796</v>
       </c>
       <c r="N4">
-        <v>69130</v>
+        <v>16028</v>
       </c>
       <c r="O4" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
       <c r="P4">
-        <v>66.62</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="Q4">
-        <v>-150.07</v>
+        <v>-146.18</v>
       </c>
       <c r="R4" t="s">
         <v>70</v>
       </c>
       <c r="U4" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="V4">
-        <v>70543</v>
+        <v>11699</v>
       </c>
       <c r="W4">
-        <v>70543</v>
+        <v>11699</v>
       </c>
       <c r="X4" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="Y4">
-        <v>66.619855000000001</v>
+        <v>64.677005007999995</v>
       </c>
       <c r="Z4">
-        <v>-150.06565599999999</v>
+        <v>-146.17881654499999</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AE4" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="AF4">
-        <v>69130</v>
+        <v>16028</v>
       </c>
       <c r="AK4">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="AL4">
-        <v>0.60000000000000053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>389</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>390</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I5" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3">
-        <v>37961</v>
+        <v>39331</v>
+      </c>
+      <c r="K5" t="s">
+        <v>392</v>
       </c>
       <c r="L5" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="M5">
-        <v>279577</v>
+        <v>290108</v>
       </c>
       <c r="N5">
-        <v>10903</v>
+        <v>48850</v>
       </c>
       <c r="O5" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="P5">
-        <v>65.62</v>
+        <v>65.39</v>
       </c>
       <c r="Q5">
-        <v>-148.27000000000001</v>
+        <v>-146.18</v>
       </c>
       <c r="R5" t="s">
         <v>70</v>
       </c>
       <c r="U5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="V5">
-        <v>12538</v>
+        <v>45929</v>
       </c>
       <c r="W5">
-        <v>12538</v>
+        <v>45929</v>
       </c>
       <c r="X5" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="Y5">
-        <v>65.618783715999996</v>
+        <v>65.390327174000006</v>
       </c>
       <c r="Z5">
-        <v>-148.25366491299999</v>
+        <v>-146.181593655</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -2152,303 +2150,294 @@
         <v>62</v>
       </c>
       <c r="AE5" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AF5">
-        <v>10903</v>
+        <v>48850</v>
       </c>
       <c r="AK5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL5">
-        <v>0.70000000000000018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J6" s="3">
-        <v>33239</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
       </c>
       <c r="L6" t="s">
         <v>75</v>
       </c>
       <c r="M6">
-        <v>293803</v>
+        <v>284667</v>
       </c>
       <c r="N6">
-        <v>3609</v>
+        <v>49103</v>
       </c>
       <c r="O6" t="s">
-        <v>373</v>
+        <v>153</v>
       </c>
       <c r="P6">
-        <v>67.14</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="Q6">
-        <v>-149.4</v>
+        <v>-146.21</v>
       </c>
       <c r="R6" t="s">
         <v>70</v>
       </c>
       <c r="U6" t="s">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="V6">
-        <v>3306</v>
+        <v>45078</v>
       </c>
       <c r="W6">
-        <v>3306</v>
+        <v>45078</v>
       </c>
       <c r="X6" t="s">
-        <v>371</v>
+        <v>154</v>
       </c>
       <c r="Y6">
-        <v>67.144999999999996</v>
+        <v>65.351849371</v>
       </c>
       <c r="Z6">
-        <v>-149.39699999999999</v>
+        <v>-146.20967361500001</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="AE6" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AF6">
-        <v>3609</v>
+        <v>49103</v>
       </c>
       <c r="AK6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="AL6">
-        <v>0.70000000000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+        <v>1.1000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="3">
-        <v>33239</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>208</v>
       </c>
       <c r="L7" t="s">
         <v>75</v>
       </c>
       <c r="M7">
-        <v>352023</v>
+        <v>295370</v>
       </c>
       <c r="N7">
-        <v>172108</v>
+        <v>50130</v>
       </c>
       <c r="O7" t="s">
-        <v>377</v>
+        <v>226</v>
       </c>
       <c r="P7">
-        <v>67</v>
+        <v>65.37</v>
       </c>
       <c r="Q7">
-        <v>-150.1</v>
+        <v>-146.44</v>
       </c>
       <c r="R7" t="s">
         <v>70</v>
       </c>
       <c r="U7" t="s">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="V7">
-        <v>3278</v>
+        <v>46902</v>
       </c>
       <c r="W7">
-        <v>3278</v>
+        <v>46902</v>
       </c>
       <c r="X7" t="s">
-        <v>376</v>
+        <v>227</v>
       </c>
       <c r="Y7">
-        <v>67.001999999999995</v>
+        <v>65.367164195000001</v>
       </c>
       <c r="Z7">
-        <v>-150.09800000000001</v>
+        <v>-146.42586349600001</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="AC7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="AE7" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AF7">
-        <v>172108</v>
+        <v>50130</v>
       </c>
       <c r="AK7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="AL7">
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="153" x14ac:dyDescent="0.2">
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" s="3">
-        <v>41275</v>
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>208</v>
       </c>
       <c r="L8" t="s">
         <v>75</v>
       </c>
       <c r="M8">
-        <v>727964</v>
+        <v>280062</v>
       </c>
       <c r="N8">
-        <v>70982</v>
+        <v>50925</v>
       </c>
       <c r="O8" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="P8">
-        <v>66.12</v>
+        <v>65.27</v>
       </c>
       <c r="Q8">
-        <v>-150.12</v>
+        <v>-146.37</v>
       </c>
       <c r="R8" t="s">
         <v>70</v>
       </c>
       <c r="U8" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="V8">
-        <v>72365</v>
+        <v>47002</v>
       </c>
       <c r="W8">
-        <v>72365</v>
+        <v>47002</v>
       </c>
       <c r="X8" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="Y8">
-        <v>66.117874150000006</v>
+        <v>65.268754071999993</v>
       </c>
       <c r="Z8">
-        <v>-150.12360240000001</v>
+        <v>-146.363289184</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="AE8" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AF8">
-        <v>70982</v>
+        <v>50925</v>
       </c>
       <c r="AK8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AL8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="3">
-        <v>35431</v>
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>163</v>
       </c>
       <c r="K9" t="s">
         <v>117</v>
@@ -2457,457 +2446,472 @@
         <v>75</v>
       </c>
       <c r="M9">
-        <v>315952</v>
+        <v>316091</v>
       </c>
       <c r="N9">
-        <v>176027</v>
+        <v>148581</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="P9">
-        <v>65.16</v>
+        <v>65.27</v>
       </c>
       <c r="Q9">
-        <v>-150.12</v>
+        <v>-146.25</v>
       </c>
       <c r="R9" t="s">
         <v>70</v>
       </c>
       <c r="U9" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="V9">
-        <v>21679</v>
+        <v>47145</v>
       </c>
       <c r="W9">
-        <v>21679</v>
+        <v>47145</v>
       </c>
       <c r="X9" t="s">
-        <v>353</v>
+        <v>166</v>
       </c>
       <c r="Y9">
-        <v>65.159379561899897</v>
+        <v>65.272481186999997</v>
       </c>
       <c r="Z9">
-        <v>-150.11459282600001</v>
+        <v>-146.24553583900001</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="AC9" t="s">
-        <v>354</v>
+        <v>62</v>
       </c>
       <c r="AE9" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AF9">
-        <v>176027</v>
+        <v>148581</v>
       </c>
       <c r="AK9">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="204" x14ac:dyDescent="0.2">
+        <v>1.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>389</v>
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>391</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="3">
-        <v>39331</v>
+        <v>29587</v>
       </c>
       <c r="K10" t="s">
-        <v>392</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="M10">
-        <v>290108</v>
+        <v>719087</v>
       </c>
       <c r="N10">
-        <v>48850</v>
+        <v>177937</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="P10">
-        <v>65.39</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="Q10">
-        <v>-146.18</v>
+        <v>-147.55000000000001</v>
       </c>
       <c r="R10" t="s">
         <v>70</v>
       </c>
       <c r="U10" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="V10">
-        <v>45929</v>
+        <v>35388</v>
       </c>
       <c r="W10">
-        <v>45929</v>
+        <v>35388</v>
       </c>
       <c r="X10" t="s">
-        <v>393</v>
+        <v>110</v>
       </c>
       <c r="Y10">
-        <v>65.390327174000006</v>
+        <v>64.927499999999995</v>
       </c>
       <c r="Z10">
-        <v>-146.181593655</v>
+        <v>-147.54580000000001</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AC10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="AE10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="AF10">
-        <v>48850</v>
+        <v>177937</v>
       </c>
       <c r="AK10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q11">
-        <v>-147.81</v>
-      </c>
-      <c r="R11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11">
-        <v>530</v>
-      </c>
-      <c r="AH11">
-        <v>500</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>394</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
       </c>
       <c r="AK11">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AL11">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>404</v>
+        <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" t="s">
-        <v>152</v>
+      <c r="J12" s="3">
+        <v>37506</v>
+      </c>
+      <c r="K12" t="s">
+        <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="M12">
-        <v>284667</v>
+        <v>706768</v>
       </c>
       <c r="N12">
-        <v>49103</v>
+        <v>11582</v>
       </c>
       <c r="O12" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="P12">
-        <v>65.349999999999994</v>
+        <v>64.66</v>
       </c>
       <c r="Q12">
-        <v>-146.21</v>
+        <v>-145.36000000000001</v>
       </c>
       <c r="R12" t="s">
         <v>70</v>
       </c>
       <c r="U12" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="V12">
-        <v>45078</v>
+        <v>15771</v>
       </c>
       <c r="W12">
-        <v>45078</v>
+        <v>15771</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="Y12">
-        <v>65.351849371</v>
+        <v>64.663437685999995</v>
       </c>
       <c r="Z12">
-        <v>-146.20967361500001</v>
+        <v>-145.34956983999999</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="AE12" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="AF12">
-        <v>49103</v>
+        <v>11582</v>
       </c>
       <c r="AK12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AL12">
-        <v>1.1000000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="3">
-        <v>33239</v>
+        <v>181</v>
+      </c>
+      <c r="H13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" t="s">
+        <v>184</v>
       </c>
       <c r="L13" t="s">
         <v>75</v>
       </c>
       <c r="M13">
-        <v>288136</v>
+        <v>707019</v>
       </c>
       <c r="N13">
-        <v>2468</v>
+        <v>16128</v>
       </c>
       <c r="O13" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="P13">
-        <v>67.14</v>
+        <v>64.91</v>
       </c>
       <c r="Q13">
-        <v>-149.4</v>
+        <v>-144.22999999999999</v>
       </c>
       <c r="R13" t="s">
         <v>70</v>
       </c>
       <c r="U13" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="V13">
-        <v>3328</v>
+        <v>11777</v>
       </c>
       <c r="W13">
-        <v>3328</v>
+        <v>11777</v>
       </c>
       <c r="X13" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="Y13">
-        <v>67.144999999999996</v>
+        <v>64.905525462</v>
       </c>
       <c r="Z13">
-        <v>-149.39699999999999</v>
+        <v>-144.22471035800001</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="AE13" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AF13">
-        <v>2469</v>
+        <v>16128</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AL13">
-        <v>1.1000000000000005</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="153" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="3">
+        <v>41275</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14">
+        <v>727964</v>
+      </c>
+      <c r="N14">
+        <v>70982</v>
+      </c>
+      <c r="O14" t="s">
+        <v>160</v>
       </c>
       <c r="P14">
-        <v>65.010000000000005</v>
+        <v>66.12</v>
       </c>
       <c r="Q14">
-        <v>-147.81</v>
+        <v>-150.12</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14">
-        <v>530</v>
-      </c>
-      <c r="AH14">
-        <v>175</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="U14" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14">
+        <v>72365</v>
+      </c>
+      <c r="W14">
+        <v>72365</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14">
+        <v>66.117874150000006</v>
+      </c>
+      <c r="Z14">
+        <v>-150.12360240000001</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF14">
+        <v>70982</v>
       </c>
       <c r="AK14">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AL14">
-        <v>1.1000000000000005</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J15" t="s">
-        <v>208</v>
+      <c r="J15" s="3">
+        <v>39331</v>
       </c>
       <c r="L15" t="s">
         <v>75</v>
       </c>
       <c r="M15">
-        <v>280062</v>
+        <v>284807</v>
       </c>
       <c r="N15">
-        <v>50925</v>
+        <v>48846</v>
       </c>
       <c r="O15" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="P15">
-        <v>65.27</v>
+        <v>65.39</v>
       </c>
       <c r="Q15">
-        <v>-146.37</v>
+        <v>-146.18</v>
       </c>
       <c r="R15" t="s">
         <v>70</v>
@@ -2916,19 +2920,19 @@
         <v>132</v>
       </c>
       <c r="V15">
-        <v>47002</v>
+        <v>45987</v>
       </c>
       <c r="W15">
-        <v>47002</v>
+        <v>45987</v>
       </c>
       <c r="X15" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="Y15">
-        <v>65.268754071999993</v>
+        <v>65.390578285999993</v>
       </c>
       <c r="Z15">
-        <v>-146.363289184</v>
+        <v>-146.18655722400001</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -2943,1932 +2947,2627 @@
         <v>129</v>
       </c>
       <c r="AF15">
-        <v>50925</v>
+        <v>48846</v>
       </c>
       <c r="AK15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AL15">
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="289" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>80</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="J16" s="3">
         <v>40909</v>
       </c>
-      <c r="K16" t="s">
-        <v>324</v>
-      </c>
       <c r="L16" t="s">
         <v>75</v>
       </c>
       <c r="M16">
-        <v>674450</v>
+        <v>727788</v>
       </c>
       <c r="N16">
-        <v>82686</v>
+        <v>69130</v>
       </c>
       <c r="O16" t="s">
-        <v>325</v>
+        <v>136</v>
       </c>
       <c r="P16">
-        <v>66.02</v>
+        <v>66.62</v>
       </c>
       <c r="Q16">
-        <v>-149.80000000000001</v>
+        <v>-150.07</v>
       </c>
       <c r="R16" t="s">
         <v>70</v>
       </c>
       <c r="U16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="V16">
-        <v>84355</v>
+        <v>70543</v>
       </c>
       <c r="W16">
-        <v>84355</v>
+        <v>70543</v>
       </c>
       <c r="X16" t="s">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="Y16">
-        <v>66.021974</v>
+        <v>66.619855000000001</v>
       </c>
       <c r="Z16">
-        <v>-149.80227300000001</v>
+        <v>-150.06565599999999</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AE16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AF16">
-        <v>82686</v>
+        <v>69130</v>
       </c>
       <c r="AK16">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AL16">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+        <v>2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="3">
+        <v>37476</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17">
+        <v>287500</v>
+      </c>
+      <c r="N17">
+        <v>15964</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
       </c>
       <c r="P17">
-        <v>64.98</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="Q17">
-        <v>-147.32</v>
+        <v>-145.01</v>
       </c>
       <c r="R17" t="s">
         <v>40</v>
       </c>
-      <c r="S17">
-        <v>122</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH17">
-        <v>10</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>44</v>
+      <c r="U17" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17">
+        <v>14099</v>
+      </c>
+      <c r="W17">
+        <v>14099</v>
+      </c>
+      <c r="X17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="Z17">
+        <v>-145.01</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1111</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF17">
+        <v>15964</v>
       </c>
       <c r="AK17">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="AL17">
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+        <v>1.6000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>349</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>348</v>
+      </c>
+      <c r="J18" s="3">
+        <v>37870</v>
+      </c>
+      <c r="K18" t="s">
+        <v>350</v>
+      </c>
+      <c r="L18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>42</v>
+      <c r="M18">
+        <v>283894</v>
+      </c>
+      <c r="N18">
+        <v>10623</v>
+      </c>
+      <c r="O18" t="s">
+        <v>274</v>
       </c>
       <c r="P18">
-        <v>65.05</v>
+        <v>65.59</v>
       </c>
       <c r="Q18">
-        <v>-147.53</v>
+        <v>-148.75</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18">
-        <v>300</v>
-      </c>
-      <c r="AH18">
-        <v>250</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="U18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V18">
+        <v>13566</v>
+      </c>
+      <c r="W18">
+        <v>13566</v>
+      </c>
+      <c r="X18" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y18">
+        <v>65.591156604000005</v>
+      </c>
+      <c r="Z18">
+        <v>-148.748848302</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF18">
+        <v>10623</v>
       </c>
       <c r="AK18">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="AL18">
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>259</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>225</v>
-      </c>
-      <c r="J19" t="s">
-        <v>208</v>
+        <v>89</v>
+      </c>
+      <c r="J19" s="3">
+        <v>33239</v>
       </c>
       <c r="L19" t="s">
         <v>75</v>
       </c>
       <c r="M19">
-        <v>295370</v>
+        <v>288094</v>
       </c>
       <c r="N19">
-        <v>50130</v>
+        <v>3468</v>
       </c>
       <c r="O19" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="P19">
-        <v>65.37</v>
+        <v>64.88</v>
       </c>
       <c r="Q19">
-        <v>-146.44</v>
+        <v>-145.59</v>
       </c>
       <c r="R19" t="s">
         <v>70</v>
       </c>
       <c r="U19" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="V19">
-        <v>46902</v>
+        <v>3819</v>
       </c>
       <c r="W19">
-        <v>46902</v>
+        <v>3819</v>
       </c>
       <c r="X19" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="Y19">
-        <v>65.367164195000001</v>
+        <v>64.881</v>
       </c>
       <c r="Z19">
-        <v>-146.42586349600001</v>
+        <v>-145.58600000000001</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AC19" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AE19" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="AF19">
-        <v>50130</v>
+        <v>3468</v>
       </c>
       <c r="AK19">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AL19">
-        <v>1.3000000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>298</v>
+      </c>
+      <c r="I20" t="s">
+        <v>299</v>
       </c>
       <c r="J20" s="3">
-        <v>35431</v>
+        <v>37747</v>
       </c>
       <c r="L20" t="s">
         <v>75</v>
       </c>
       <c r="M20">
-        <v>315997</v>
+        <v>279453</v>
       </c>
       <c r="N20">
-        <v>22484</v>
+        <v>10436</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="P20">
-        <v>65.209999999999994</v>
+        <v>65.5</v>
       </c>
       <c r="Q20">
-        <v>-150.47999999999999</v>
+        <v>-148.32</v>
       </c>
       <c r="R20" t="s">
         <v>70</v>
       </c>
       <c r="U20" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="V20">
-        <v>21646</v>
+        <v>13282</v>
       </c>
       <c r="W20">
-        <v>21646</v>
+        <v>13282</v>
       </c>
       <c r="X20" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="Y20">
-        <v>65.211699999999993</v>
+        <v>65.503791473999996</v>
       </c>
       <c r="Z20">
-        <v>-150.4735</v>
+        <v>-148.33154240299999</v>
       </c>
       <c r="AA20">
         <v>1</v>
       </c>
       <c r="AB20">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="AE20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AF20">
-        <v>22484</v>
+        <v>10436</v>
       </c>
       <c r="AK20">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL20">
-        <v>1.3000000000000007</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>1.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>367</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" t="s">
-        <v>169</v>
+        <v>285</v>
+      </c>
+      <c r="H21" t="s">
+        <v>286</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="L21" t="s">
         <v>75</v>
       </c>
       <c r="M21">
-        <v>286195</v>
+        <v>313772</v>
       </c>
       <c r="N21">
-        <v>15932</v>
+        <v>10001</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="P21">
-        <v>64.569999999999993</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="Q21">
-        <v>-145.57</v>
+        <v>-148.44999999999999</v>
       </c>
       <c r="R21" t="s">
         <v>70</v>
       </c>
       <c r="U21" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="V21">
-        <v>14324</v>
+        <v>13095</v>
       </c>
       <c r="W21">
-        <v>14324</v>
+        <v>13095</v>
       </c>
       <c r="X21" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="Y21">
-        <v>64.569999999999993</v>
+        <v>65.511859419999993</v>
       </c>
       <c r="Z21">
-        <v>-145.58000000000001</v>
+        <v>-148.44612710600001</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>1111</v>
+        <v>5</v>
       </c>
       <c r="AC21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF21">
+        <v>10001</v>
+      </c>
+      <c r="AK21">
+        <v>21</v>
+      </c>
+      <c r="AL21">
+        <v>1.6000000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J22" s="3">
+        <v>37870</v>
+      </c>
+      <c r="K22" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22">
+        <v>336571</v>
+      </c>
+      <c r="N22">
+        <v>148198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22">
+        <v>65.59</v>
+      </c>
+      <c r="Q22">
+        <v>-148.75</v>
+      </c>
+      <c r="R22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U22" t="s">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>13568</v>
+      </c>
+      <c r="W22">
+        <v>13568</v>
+      </c>
+      <c r="X22" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y22">
+        <v>65.589947453999997</v>
+      </c>
+      <c r="Z22">
+        <v>-148.744732511</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>5</v>
+      </c>
+      <c r="AC22" t="s">
         <v>120</v>
       </c>
-      <c r="AE21" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF21">
-        <v>15932</v>
-      </c>
-      <c r="AK21">
-        <v>43</v>
-      </c>
-      <c r="AL21">
-        <v>1.3000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="AE22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF22">
+        <v>148198</v>
+      </c>
+      <c r="AK22">
+        <v>22</v>
+      </c>
+      <c r="AL22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>343</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" t="s">
+        <v>344</v>
+      </c>
+      <c r="I23" t="s">
+        <v>338</v>
+      </c>
+      <c r="J23" s="3">
+        <v>37870</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23">
+        <v>289099</v>
+      </c>
+      <c r="N23">
+        <v>10636</v>
+      </c>
+      <c r="O23" t="s">
+        <v>276</v>
+      </c>
+      <c r="P23">
+        <v>65.61</v>
+      </c>
+      <c r="Q23">
+        <v>-148.75</v>
+      </c>
+      <c r="R23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U23" t="s">
+        <v>60</v>
+      </c>
+      <c r="V23">
+        <v>12830</v>
+      </c>
+      <c r="W23">
+        <v>12830</v>
+      </c>
+      <c r="X23" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y23">
+        <v>65.615075963999999</v>
+      </c>
+      <c r="Z23">
+        <v>-148.75178182499999</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF23">
+        <v>10636</v>
+      </c>
+      <c r="AK23">
+        <v>23</v>
+      </c>
+      <c r="AL23">
+        <v>0.5</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q22">
-        <v>-147.81</v>
-      </c>
-      <c r="R22" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22">
-        <v>530</v>
-      </c>
-      <c r="AH22">
-        <v>50</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK22">
-        <v>59</v>
-      </c>
-      <c r="AL22">
-        <v>1.3000000000000007</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q23">
-        <v>-147.81</v>
-      </c>
-      <c r="R23" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23">
-        <v>530</v>
-      </c>
-      <c r="AH23">
-        <v>200</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK23">
-        <v>64</v>
-      </c>
-      <c r="AL23">
-        <v>1.3000000000000007</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>64</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>51</v>
+      <c r="H24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>284788</v>
+      </c>
+      <c r="N24">
+        <v>51139</v>
+      </c>
+      <c r="O24" t="s">
+        <v>237</v>
       </c>
       <c r="P24">
-        <v>65.010000000000005</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="Q24">
-        <v>-147.81</v>
+        <v>-146.38</v>
       </c>
       <c r="R24" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24">
-        <v>530</v>
-      </c>
-      <c r="AH24">
-        <v>400</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK24">
+        <v>70</v>
+      </c>
+      <c r="U24" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24">
+        <v>46137</v>
+      </c>
+      <c r="W24">
+        <v>46137</v>
+      </c>
+      <c r="X24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y24">
+        <v>65.214364318999998</v>
+      </c>
+      <c r="Z24">
+        <v>-146.38537564800001</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF24">
+        <v>51139</v>
+      </c>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4">
+        <v>24</v>
+      </c>
+      <c r="AL24">
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK25">
+        <v>25</v>
+      </c>
+      <c r="AL25">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" t="s">
         <v>68</v>
       </c>
-      <c r="AL24">
-        <v>1.3000000000000007</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25">
-        <v>64.98</v>
-      </c>
-      <c r="Q25">
-        <v>-147.32</v>
-      </c>
-      <c r="R25" t="s">
-        <v>40</v>
-      </c>
-      <c r="S25">
-        <v>122</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH25">
-        <v>50</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK25">
-        <v>74</v>
-      </c>
-      <c r="AL25">
-        <v>1.3000000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="J26" s="3">
+        <v>35431</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
         <v>75</v>
       </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>42</v>
+      <c r="M26">
+        <v>338261</v>
+      </c>
+      <c r="N26">
+        <v>22318</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
       </c>
       <c r="P26">
-        <v>65.05</v>
+        <v>65.22</v>
       </c>
       <c r="Q26">
-        <v>-147.53</v>
+        <v>-150.19999999999999</v>
       </c>
       <c r="R26" t="s">
-        <v>40</v>
-      </c>
-      <c r="S26">
-        <v>300</v>
-      </c>
-      <c r="AH26">
-        <v>298</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="U26" t="s">
+        <v>71</v>
+      </c>
+      <c r="V26">
+        <v>21480</v>
+      </c>
+      <c r="W26">
+        <v>21480</v>
+      </c>
+      <c r="X26" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y26">
+        <v>65.224999999999994</v>
+      </c>
+      <c r="Z26">
+        <v>-150.19309999999999</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>60</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF26">
+        <v>22318</v>
       </c>
       <c r="AK26">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="AL26">
-        <v>1.3000000000000007</v>
+        <v>2.7</v>
       </c>
       <c r="AM26" t="s">
-        <v>408</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>317</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" t="s">
-        <v>197</v>
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="3">
+        <v>35431</v>
       </c>
       <c r="L27" t="s">
         <v>75</v>
       </c>
       <c r="M27">
-        <v>688796</v>
+        <v>315997</v>
       </c>
       <c r="N27">
-        <v>16028</v>
+        <v>22484</v>
       </c>
       <c r="O27" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="P27">
-        <v>64.680000000000007</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="Q27">
-        <v>-146.18</v>
+        <v>-150.47999999999999</v>
       </c>
       <c r="R27" t="s">
         <v>70</v>
       </c>
       <c r="U27" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="V27">
-        <v>11699</v>
+        <v>21646</v>
       </c>
       <c r="W27">
-        <v>11699</v>
+        <v>21646</v>
       </c>
       <c r="X27" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="Y27">
-        <v>64.677005007999995</v>
+        <v>65.211699999999993</v>
       </c>
       <c r="Z27">
-        <v>-146.17881654499999</v>
+        <v>-150.4735</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
+        <v>60</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF27">
+        <v>22484</v>
+      </c>
+      <c r="AK27">
+        <v>27</v>
+      </c>
+      <c r="AL27">
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>397</v>
+      </c>
+      <c r="O28" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK28">
+        <v>28</v>
+      </c>
+      <c r="AL28">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29">
         <v>5</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>378</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29">
+        <v>371834</v>
+      </c>
+      <c r="N29">
+        <v>111443</v>
+      </c>
+      <c r="O29" t="s">
+        <v>216</v>
+      </c>
+      <c r="P29">
+        <v>65.36</v>
+      </c>
+      <c r="Q29">
+        <v>-148.26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>70</v>
+      </c>
+      <c r="U29" t="s">
+        <v>217</v>
+      </c>
+      <c r="V29">
+        <v>115448</v>
+      </c>
+      <c r="W29">
+        <v>115448</v>
+      </c>
+      <c r="X29" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29">
+        <v>65.363929999999996</v>
+      </c>
+      <c r="Z29">
+        <v>-148.25543999999999</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF29">
+        <v>111443</v>
+      </c>
+      <c r="AK29">
+        <v>29</v>
+      </c>
+      <c r="AL29">
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="187" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="3">
+        <v>40909</v>
+      </c>
+      <c r="L30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30">
+        <v>674509</v>
+      </c>
+      <c r="N30">
+        <v>69247</v>
+      </c>
+      <c r="O30" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="Q30">
+        <v>-149.91999999999999</v>
+      </c>
+      <c r="R30" t="s">
+        <v>70</v>
+      </c>
+      <c r="U30" t="s">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>70762</v>
+      </c>
+      <c r="W30">
+        <v>70762</v>
+      </c>
+      <c r="X30" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y30">
+        <v>66.073408000000001</v>
+      </c>
+      <c r="Z30">
+        <v>-149.920075</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF30">
+        <v>69247</v>
+      </c>
+      <c r="AK30">
+        <v>30</v>
+      </c>
+      <c r="AL30">
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>361</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" s="3">
+        <v>37870</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31">
+        <v>283649</v>
+      </c>
+      <c r="N31">
+        <v>10673</v>
+      </c>
+      <c r="O31" t="s">
+        <v>291</v>
+      </c>
+      <c r="P31">
+        <v>65.62</v>
+      </c>
+      <c r="Q31">
+        <v>-148.65</v>
+      </c>
+      <c r="R31" t="s">
+        <v>70</v>
+      </c>
+      <c r="U31" t="s">
+        <v>142</v>
+      </c>
+      <c r="V31">
+        <v>12860</v>
+      </c>
+      <c r="W31">
+        <v>12860</v>
+      </c>
+      <c r="X31" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y31">
+        <v>65.623428282000006</v>
+      </c>
+      <c r="Z31">
+        <v>-148.63343555500001</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF31">
+        <v>10673</v>
+      </c>
+      <c r="AK31">
+        <v>31</v>
+      </c>
+      <c r="AL31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" t="s">
+        <v>334</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" s="3">
+        <v>37961</v>
+      </c>
+      <c r="L32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32">
+        <v>279280</v>
+      </c>
+      <c r="N32">
+        <v>10906</v>
+      </c>
+      <c r="O32" t="s">
+        <v>222</v>
+      </c>
+      <c r="P32">
+        <v>65.62</v>
+      </c>
+      <c r="Q32">
+        <v>-148.27000000000001</v>
+      </c>
+      <c r="R32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U32" t="s">
+        <v>142</v>
+      </c>
+      <c r="V32">
+        <v>12540</v>
+      </c>
+      <c r="W32">
+        <v>12540</v>
+      </c>
+      <c r="X32" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y32">
+        <v>65.616164909000005</v>
+      </c>
+      <c r="Z32">
+        <v>-148.263264585</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>6</v>
+      </c>
+      <c r="AC32" t="s">
         <v>62</v>
       </c>
-      <c r="AE27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF27">
-        <v>16028</v>
-      </c>
-      <c r="AK27">
+      <c r="AE32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF32">
+        <v>10906</v>
+      </c>
+      <c r="AK32">
+        <v>32</v>
+      </c>
+      <c r="AL32">
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" ht="289" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33">
         <v>3</v>
       </c>
-      <c r="AL27">
-        <v>1.4000000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="3">
+        <v>40909</v>
+      </c>
+      <c r="L33" t="s">
         <v>75</v>
       </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P28">
-        <v>65.05</v>
-      </c>
-      <c r="Q28">
-        <v>-147.53</v>
-      </c>
-      <c r="R28" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28">
-        <v>300</v>
-      </c>
-      <c r="AH28">
-        <v>110</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK28">
-        <v>81</v>
-      </c>
-      <c r="AL28">
-        <v>1.4000000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P29">
-        <v>65.05</v>
-      </c>
-      <c r="Q29">
-        <v>-147.53</v>
-      </c>
-      <c r="R29" t="s">
-        <v>40</v>
-      </c>
-      <c r="S29">
-        <v>300</v>
-      </c>
-      <c r="AH29">
-        <v>150</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK29">
-        <v>82</v>
-      </c>
-      <c r="AL29">
-        <v>1.4000000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>64</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q30">
-        <v>-147.81</v>
-      </c>
-      <c r="R30" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30">
-        <v>530</v>
-      </c>
-      <c r="AH30">
-        <v>10</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK30">
-        <v>57</v>
-      </c>
-      <c r="AL30">
-        <v>1.5</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>64</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q31">
-        <v>-147.81</v>
-      </c>
-      <c r="R31" t="s">
-        <v>40</v>
-      </c>
-      <c r="S31">
-        <v>530</v>
-      </c>
-      <c r="AH31">
-        <v>25</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK31">
-        <v>58</v>
-      </c>
-      <c r="AL31">
-        <v>1.5</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>64</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P32">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q32">
-        <v>-147.81</v>
-      </c>
-      <c r="R32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S32">
-        <v>530</v>
-      </c>
-      <c r="AH32">
-        <v>250</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK32">
-        <v>65</v>
-      </c>
-      <c r="AL32">
-        <v>1.5</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="3">
-        <v>37476</v>
-      </c>
-      <c r="K33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" t="s">
-        <v>58</v>
-      </c>
       <c r="M33">
-        <v>287500</v>
+        <v>673485</v>
       </c>
       <c r="N33">
-        <v>15964</v>
+        <v>69130</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="P33">
-        <v>64.430000000000007</v>
+        <v>66.62</v>
       </c>
       <c r="Q33">
-        <v>-145.01</v>
+        <v>-150.07</v>
       </c>
       <c r="R33" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V33">
-        <v>14099</v>
+        <v>70543</v>
       </c>
       <c r="W33">
-        <v>14099</v>
+        <v>70543</v>
       </c>
       <c r="X33" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="Y33">
-        <v>64.430000000000007</v>
+        <v>66.619855000000001</v>
       </c>
       <c r="Z33">
-        <v>-145.01</v>
+        <v>-150.06565599999999</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>1111</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="AE33" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="AF33">
-        <v>15964</v>
+        <v>69130</v>
       </c>
       <c r="AK33">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="AL33">
-        <v>1.6000000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="187" x14ac:dyDescent="0.2">
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="H34" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
-      </c>
-      <c r="J34" s="3">
-        <v>37686</v>
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>215</v>
       </c>
       <c r="L34" t="s">
         <v>75</v>
       </c>
       <c r="M34">
-        <v>335183</v>
+        <v>366955</v>
       </c>
       <c r="N34">
-        <v>10218</v>
+        <v>111206</v>
       </c>
       <c r="O34" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="P34">
-        <v>65.52</v>
+        <v>65.430000000000007</v>
       </c>
       <c r="Q34">
-        <v>-148.52000000000001</v>
+        <v>-148.35</v>
       </c>
       <c r="R34" t="s">
         <v>70</v>
       </c>
       <c r="U34" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="V34">
-        <v>12902</v>
+        <v>115265</v>
       </c>
       <c r="W34">
-        <v>12902</v>
+        <v>115265</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="Y34">
-        <v>65.520762395999995</v>
+        <v>65.426670000000001</v>
       </c>
       <c r="Z34">
-        <v>-148.533752918</v>
+        <v>-148.34280000000001</v>
       </c>
       <c r="AA34">
         <v>1</v>
       </c>
       <c r="AB34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC34" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="AE34" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="AF34">
-        <v>10218</v>
-      </c>
+        <v>111206</v>
+      </c>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
       <c r="AK34">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL34">
-        <v>1.6000000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" t="s">
-        <v>286</v>
-      </c>
-      <c r="J35" t="s">
-        <v>287</v>
+        <v>82</v>
+      </c>
+      <c r="J35" s="3">
+        <v>40909</v>
+      </c>
+      <c r="K35" t="s">
+        <v>241</v>
       </c>
       <c r="L35" t="s">
         <v>75</v>
       </c>
       <c r="M35">
-        <v>313772</v>
+        <v>673692</v>
       </c>
       <c r="N35">
-        <v>10001</v>
+        <v>82876</v>
       </c>
       <c r="O35" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="P35">
-        <v>65.510000000000005</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="Q35">
-        <v>-148.44999999999999</v>
+        <v>-150.33000000000001</v>
       </c>
       <c r="R35" t="s">
         <v>70</v>
       </c>
       <c r="U35" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="V35">
-        <v>13095</v>
+        <v>84203</v>
       </c>
       <c r="W35">
-        <v>13095</v>
+        <v>84203</v>
       </c>
       <c r="X35" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="Y35">
-        <v>65.511859419999993</v>
+        <v>66.258064000000005</v>
       </c>
       <c r="Z35">
-        <v>-148.44612710600001</v>
+        <v>-150.32506100000001</v>
       </c>
       <c r="AA35">
         <v>1</v>
       </c>
       <c r="AB35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="AE35" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="AF35">
-        <v>10001</v>
+        <v>82876</v>
       </c>
       <c r="AK35">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AL35">
-        <v>1.6000000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>360</v>
+        <v>186</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" t="s">
-        <v>358</v>
-      </c>
-      <c r="J36" s="3">
-        <v>37839</v>
+        <v>187</v>
+      </c>
+      <c r="I36" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" t="s">
+        <v>190</v>
       </c>
       <c r="L36" t="s">
         <v>75</v>
       </c>
       <c r="M36">
-        <v>279115</v>
+        <v>291903</v>
       </c>
       <c r="N36">
-        <v>10565</v>
+        <v>15966</v>
       </c>
       <c r="O36" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="P36">
-        <v>65.59</v>
+        <v>64.61</v>
       </c>
       <c r="Q36">
-        <v>-148.52000000000001</v>
+        <v>-144.94</v>
       </c>
       <c r="R36" t="s">
         <v>70</v>
       </c>
       <c r="U36" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="V36">
-        <v>13512</v>
+        <v>16136</v>
       </c>
       <c r="W36">
-        <v>13512</v>
+        <v>16136</v>
       </c>
       <c r="X36" t="s">
-        <v>359</v>
+        <v>193</v>
       </c>
       <c r="Y36">
-        <v>65.590441580999993</v>
+        <v>64.611357858000005</v>
       </c>
       <c r="Z36">
-        <v>-148.518033481</v>
+        <v>-144.94042800400001</v>
       </c>
       <c r="AA36">
         <v>1</v>
       </c>
       <c r="AB36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC36" t="s">
         <v>62</v>
       </c>
       <c r="AE36" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="AF36">
-        <v>10565</v>
+        <v>15966</v>
       </c>
       <c r="AK36">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AL36">
-        <v>1.6000000000000005</v>
+        <v>2.1000000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>316</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
       </c>
       <c r="J37" s="3">
-        <v>33239</v>
+        <v>35431</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="L37" t="s">
         <v>75</v>
       </c>
       <c r="M37">
-        <v>288144</v>
+        <v>315952</v>
       </c>
       <c r="N37">
-        <v>3621</v>
+        <v>176027</v>
       </c>
       <c r="O37" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="P37">
-        <v>66.95</v>
+        <v>65.16</v>
       </c>
       <c r="Q37">
-        <v>-149.81</v>
+        <v>-150.12</v>
       </c>
       <c r="R37" t="s">
         <v>70</v>
       </c>
       <c r="U37" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="V37">
-        <v>3319</v>
+        <v>21679</v>
       </c>
       <c r="W37">
-        <v>3319</v>
+        <v>21679</v>
       </c>
       <c r="X37" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="Y37">
-        <v>66.953000000000003</v>
+        <v>65.159379561899897</v>
       </c>
       <c r="Z37">
-        <v>-149.80600000000001</v>
+        <v>-150.11459282600001</v>
       </c>
       <c r="AA37">
         <v>1</v>
       </c>
       <c r="AB37">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AC37" t="s">
-        <v>92</v>
+        <v>354</v>
       </c>
       <c r="AE37" t="s">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AF37">
-        <v>3621</v>
+        <v>176027</v>
       </c>
       <c r="AK37">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AL37">
-        <v>1.6000000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H38" t="s">
-        <v>381</v>
-      </c>
-      <c r="I38" t="s">
-        <v>382</v>
+        <v>67</v>
       </c>
       <c r="J38" s="3">
-        <v>37747</v>
+        <v>40909</v>
+      </c>
+      <c r="K38" t="s">
+        <v>68</v>
       </c>
       <c r="L38" t="s">
         <v>75</v>
       </c>
       <c r="M38">
-        <v>283618</v>
+        <v>673589</v>
       </c>
       <c r="N38">
-        <v>10438</v>
+        <v>144358</v>
       </c>
       <c r="O38" t="s">
-        <v>384</v>
+        <v>263</v>
       </c>
       <c r="P38">
-        <v>65.5</v>
+        <v>66.03</v>
       </c>
       <c r="Q38">
-        <v>-148.32</v>
+        <v>-150.13</v>
       </c>
       <c r="R38" t="s">
         <v>70</v>
       </c>
       <c r="U38" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="V38">
-        <v>13284</v>
+        <v>70078</v>
       </c>
       <c r="W38">
-        <v>13284</v>
+        <v>70078</v>
       </c>
       <c r="X38" t="s">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="Y38">
-        <v>65.501944813999998</v>
+        <v>66.033336840000004</v>
       </c>
       <c r="Z38">
-        <v>-148.315907006</v>
+        <v>-150.1267259</v>
       </c>
       <c r="AA38">
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="AE38" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="AF38">
-        <v>10438</v>
+        <v>144358</v>
       </c>
       <c r="AK38">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL38">
-        <v>1.6000000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
-      </c>
-      <c r="J39" t="s">
-        <v>247</v>
-      </c>
-      <c r="K39" t="s">
-        <v>68</v>
+        <v>358</v>
+      </c>
+      <c r="J39" s="3">
+        <v>37839</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="M39">
-        <v>293752</v>
+        <v>279115</v>
       </c>
       <c r="N39">
-        <v>6929</v>
+        <v>10565</v>
       </c>
       <c r="O39" t="s">
-        <v>388</v>
+        <v>147</v>
       </c>
       <c r="P39">
-        <v>64.42</v>
+        <v>65.59</v>
       </c>
       <c r="Q39">
-        <v>-145.06</v>
+        <v>-148.52000000000001</v>
       </c>
       <c r="R39" t="s">
         <v>70</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="V39">
-        <v>9682</v>
+        <v>13512</v>
       </c>
       <c r="W39">
-        <v>9682</v>
+        <v>13512</v>
       </c>
       <c r="X39" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="Y39">
-        <v>64.429230226000001</v>
+        <v>65.590441580999993</v>
       </c>
       <c r="Z39">
-        <v>-145.04776560600001</v>
+        <v>-148.518033481</v>
       </c>
       <c r="AA39">
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC39" t="s">
         <v>62</v>
       </c>
       <c r="AE39" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="AF39">
-        <v>6929</v>
+        <v>10565</v>
       </c>
       <c r="AK39">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AL39">
         <v>1.6000000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" ht="187" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>64</v>
-      </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" t="s">
+        <v>280</v>
+      </c>
+      <c r="I40" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" s="3">
+        <v>37686</v>
+      </c>
+      <c r="L40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40">
+        <v>335183</v>
+      </c>
+      <c r="N40">
+        <v>10218</v>
+      </c>
+      <c r="O40" t="s">
+        <v>282</v>
       </c>
       <c r="P40">
-        <v>65.010000000000005</v>
+        <v>65.52</v>
       </c>
       <c r="Q40">
-        <v>-147.81</v>
+        <v>-148.52000000000001</v>
       </c>
       <c r="R40" t="s">
+        <v>70</v>
+      </c>
+      <c r="U40" t="s">
+        <v>142</v>
+      </c>
+      <c r="V40">
+        <v>12902</v>
+      </c>
+      <c r="W40">
+        <v>12902</v>
+      </c>
+      <c r="X40" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y40">
+        <v>65.520762395999995</v>
+      </c>
+      <c r="Z40">
+        <v>-148.533752918</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>7</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF40">
+        <v>10218</v>
+      </c>
+      <c r="AK40">
         <v>40</v>
-      </c>
-      <c r="S40">
-        <v>530</v>
-      </c>
-      <c r="AH40">
-        <v>100</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK40">
-        <v>61</v>
       </c>
       <c r="AL40">
         <v>1.6000000000000005</v>
       </c>
-      <c r="AM40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>64</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>357</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" t="s">
+        <v>140</v>
+      </c>
+      <c r="L41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41">
+        <v>279209</v>
+      </c>
+      <c r="N41">
+        <v>11091</v>
+      </c>
+      <c r="O41" t="s">
+        <v>141</v>
       </c>
       <c r="P41">
-        <v>65.010000000000005</v>
+        <v>65.52</v>
       </c>
       <c r="Q41">
-        <v>-147.81</v>
+        <v>-148.52000000000001</v>
       </c>
       <c r="R41" t="s">
-        <v>40</v>
-      </c>
-      <c r="S41">
-        <v>530</v>
-      </c>
-      <c r="AH41">
-        <v>300</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="U41" t="s">
+        <v>142</v>
+      </c>
+      <c r="V41">
+        <v>12626</v>
+      </c>
+      <c r="W41">
+        <v>12626</v>
+      </c>
+      <c r="X41" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y41">
+        <v>65.520915958000003</v>
+      </c>
+      <c r="Z41">
+        <v>-148.53631453599999</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>9</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF41">
+        <v>11091</v>
       </c>
       <c r="AK41">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AL41">
-        <v>1.6000000000000005</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>400</v>
+        <v>2.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>386</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J42" s="3">
-        <v>39331</v>
+        <v>31778</v>
       </c>
       <c r="L42" t="s">
         <v>75</v>
       </c>
       <c r="M42">
-        <v>284807</v>
+        <v>333833</v>
       </c>
       <c r="N42">
-        <v>48846</v>
+        <v>168905</v>
       </c>
       <c r="O42" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="P42">
-        <v>65.39</v>
+        <v>65.44</v>
       </c>
       <c r="Q42">
-        <v>-146.18</v>
+        <v>-146.16999999999999</v>
       </c>
       <c r="R42" t="s">
         <v>70</v>
       </c>
       <c r="U42" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="V42">
-        <v>45987</v>
+        <v>29932</v>
       </c>
       <c r="W42">
-        <v>45987</v>
+        <v>29932</v>
       </c>
       <c r="X42" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="Y42">
-        <v>65.390578285999993</v>
+        <v>65.437364508000002</v>
       </c>
       <c r="Z42">
-        <v>-146.18655722400001</v>
+        <v>-146.16404205500001</v>
       </c>
       <c r="AA42">
         <v>1</v>
       </c>
       <c r="AB42">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AC42" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF42">
+        <v>34538</v>
+      </c>
+      <c r="AK42">
+        <v>42</v>
+      </c>
+      <c r="AL42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43">
+        <v>286195</v>
+      </c>
+      <c r="N43">
+        <v>15932</v>
+      </c>
+      <c r="O43" t="s">
+        <v>171</v>
+      </c>
+      <c r="P43">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="Q43">
+        <v>-145.57</v>
+      </c>
+      <c r="R43" t="s">
+        <v>70</v>
+      </c>
+      <c r="U43" t="s">
+        <v>172</v>
+      </c>
+      <c r="V43">
+        <v>14324</v>
+      </c>
+      <c r="W43">
+        <v>14324</v>
+      </c>
+      <c r="X43" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y43">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="Z43">
+        <v>-145.58000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1111</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF43">
+        <v>15932</v>
+      </c>
+      <c r="AK43">
+        <v>43</v>
+      </c>
+      <c r="AL43">
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="289" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="3">
+        <v>40909</v>
+      </c>
+      <c r="L44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44">
+        <v>673486</v>
+      </c>
+      <c r="N44">
+        <v>69130</v>
+      </c>
+      <c r="O44" t="s">
+        <v>320</v>
+      </c>
+      <c r="P44">
+        <v>66.62</v>
+      </c>
+      <c r="Q44">
+        <v>-150.07</v>
+      </c>
+      <c r="R44" t="s">
+        <v>70</v>
+      </c>
+      <c r="U44" t="s">
+        <v>100</v>
+      </c>
+      <c r="V44">
+        <v>70543</v>
+      </c>
+      <c r="W44">
+        <v>70543</v>
+      </c>
+      <c r="X44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y44">
+        <v>66.619855000000001</v>
+      </c>
+      <c r="Z44">
+        <v>-150.06565599999999</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF44">
+        <v>69130</v>
+      </c>
+      <c r="AK44">
+        <v>44</v>
+      </c>
+      <c r="AL44">
+        <v>0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>371</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" s="3">
+        <v>33239</v>
+      </c>
+      <c r="K45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45">
+        <v>293803</v>
+      </c>
+      <c r="N45">
+        <v>3609</v>
+      </c>
+      <c r="O45" t="s">
+        <v>373</v>
+      </c>
+      <c r="P45">
+        <v>67.14</v>
+      </c>
+      <c r="Q45">
+        <v>-149.4</v>
+      </c>
+      <c r="R45" t="s">
+        <v>70</v>
+      </c>
+      <c r="U45" t="s">
+        <v>374</v>
+      </c>
+      <c r="V45">
+        <v>3306</v>
+      </c>
+      <c r="W45">
+        <v>3306</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45">
+        <v>67.144999999999996</v>
+      </c>
+      <c r="Z45">
+        <v>-149.39699999999999</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>100</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF45">
+        <v>3609</v>
+      </c>
+      <c r="AK45">
+        <v>45</v>
+      </c>
+      <c r="AL45">
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H46" t="s">
+        <v>381</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" s="3">
+        <v>37747</v>
+      </c>
+      <c r="L46" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46">
+        <v>283618</v>
+      </c>
+      <c r="N46">
+        <v>10438</v>
+      </c>
+      <c r="O46" t="s">
+        <v>384</v>
+      </c>
+      <c r="P46">
+        <v>65.5</v>
+      </c>
+      <c r="Q46">
+        <v>-148.32</v>
+      </c>
+      <c r="R46" t="s">
+        <v>70</v>
+      </c>
+      <c r="U46" t="s">
+        <v>142</v>
+      </c>
+      <c r="V46">
+        <v>13284</v>
+      </c>
+      <c r="W46">
+        <v>13284</v>
+      </c>
+      <c r="X46" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y46">
+        <v>65.501944813999998</v>
+      </c>
+      <c r="Z46">
+        <v>-148.315907006</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>7</v>
+      </c>
+      <c r="AC46" t="s">
         <v>62</v>
       </c>
-      <c r="AE42" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF42">
-        <v>48846</v>
-      </c>
-      <c r="AK42">
-        <v>14</v>
-      </c>
-      <c r="AL42">
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
-        <v>397</v>
-      </c>
-      <c r="O43" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK43">
-        <v>28</v>
-      </c>
-      <c r="AL43">
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="AE46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF46">
+        <v>10438</v>
+      </c>
+      <c r="AK46">
         <v>46</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P44">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q44">
-        <v>-147.81</v>
-      </c>
-      <c r="R44" t="s">
-        <v>40</v>
-      </c>
-      <c r="S44">
-        <v>530</v>
-      </c>
-      <c r="AH44">
-        <v>75</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK44">
-        <v>60</v>
-      </c>
-      <c r="AL44">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>95</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P45">
-        <v>64.98</v>
-      </c>
-      <c r="Q45">
-        <v>-147.32</v>
-      </c>
-      <c r="R45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S45">
-        <v>122</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH45">
-        <v>15</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK45">
-        <v>72</v>
-      </c>
-      <c r="AL45">
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>95</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P46">
-        <v>64.98</v>
-      </c>
-      <c r="Q46">
-        <v>-147.32</v>
-      </c>
-      <c r="R46" t="s">
-        <v>40</v>
-      </c>
-      <c r="S46">
-        <v>122</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH46">
-        <v>100</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK46">
-        <v>76</v>
-      </c>
       <c r="AL46">
-        <v>1.7000000000000002</v>
+        <v>1.6000000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="68" x14ac:dyDescent="0.2">
@@ -4968,359 +5667,520 @@
     </row>
     <row r="48" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H48" t="s">
-        <v>334</v>
-      </c>
-      <c r="I48" t="s">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="J48" s="3">
-        <v>37961</v>
+        <v>40909</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
       </c>
       <c r="L48" t="s">
         <v>75</v>
       </c>
       <c r="M48">
-        <v>279280</v>
+        <v>674450</v>
       </c>
       <c r="N48">
-        <v>10906</v>
+        <v>82686</v>
       </c>
       <c r="O48" t="s">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="P48">
-        <v>65.62</v>
+        <v>66.02</v>
       </c>
       <c r="Q48">
-        <v>-148.27000000000001</v>
+        <v>-149.80000000000001</v>
       </c>
       <c r="R48" t="s">
         <v>70</v>
       </c>
       <c r="U48" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="V48">
-        <v>12540</v>
+        <v>84355</v>
       </c>
       <c r="W48">
-        <v>12540</v>
+        <v>84355</v>
       </c>
       <c r="X48" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Y48">
-        <v>65.616164909000005</v>
+        <v>66.021974</v>
       </c>
       <c r="Z48">
-        <v>-148.263264585</v>
+        <v>-149.80227300000001</v>
       </c>
       <c r="AA48">
         <v>1</v>
       </c>
       <c r="AB48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC48" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="AE48" t="s">
         <v>93</v>
       </c>
       <c r="AF48">
-        <v>10906</v>
+        <v>82686</v>
       </c>
       <c r="AK48">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AL48">
-        <v>1.8000000000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>292</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J49" s="3">
+        <v>33239</v>
+      </c>
+      <c r="L49" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49">
+        <v>288163</v>
+      </c>
+      <c r="N49">
+        <v>3588</v>
+      </c>
+      <c r="O49" t="s">
+        <v>294</v>
+      </c>
+      <c r="P49">
+        <v>67</v>
+      </c>
+      <c r="Q49">
+        <v>-150.1</v>
+      </c>
+      <c r="R49" t="s">
+        <v>70</v>
+      </c>
+      <c r="U49" t="s">
+        <v>91</v>
+      </c>
+      <c r="V49">
+        <v>3271</v>
+      </c>
+      <c r="W49">
+        <v>3271</v>
+      </c>
+      <c r="X49" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y49">
+        <v>67.001999999999995</v>
+      </c>
+      <c r="Z49">
+        <v>-150.09800000000001</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>100</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF49">
+        <v>3588</v>
+      </c>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5">
+        <v>49</v>
+      </c>
+      <c r="AL49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM49" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>316</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="3">
+        <v>33239</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50">
+        <v>288144</v>
+      </c>
+      <c r="N50">
+        <v>3621</v>
+      </c>
+      <c r="O50" t="s">
+        <v>310</v>
+      </c>
+      <c r="P50">
+        <v>66.95</v>
+      </c>
+      <c r="Q50">
+        <v>-149.81</v>
+      </c>
+      <c r="R50" t="s">
+        <v>70</v>
+      </c>
+      <c r="U50" t="s">
+        <v>91</v>
+      </c>
+      <c r="V50">
+        <v>3319</v>
+      </c>
+      <c r="W50">
+        <v>3319</v>
+      </c>
+      <c r="X50" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y50">
+        <v>66.953000000000003</v>
+      </c>
+      <c r="Z50">
+        <v>-149.80600000000001</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>100</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF50">
+        <v>3621</v>
+      </c>
+      <c r="AK50">
+        <v>50</v>
+      </c>
+      <c r="AL50">
+        <v>1.6000000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" ht="85" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="E49" t="s">
-        <v>394</v>
-      </c>
-      <c r="O49" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK49">
-        <v>10</v>
-      </c>
-      <c r="AL49">
-        <v>1.8000000000000007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="M50" s="2" t="s">
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="3">
+        <v>29587</v>
+      </c>
+      <c r="L51" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51">
+        <v>285511</v>
+      </c>
+      <c r="N51">
+        <v>37642</v>
+      </c>
+      <c r="O51" t="s">
+        <v>329</v>
+      </c>
+      <c r="P51">
+        <v>64.91</v>
+      </c>
+      <c r="Q51">
+        <v>-147.9</v>
+      </c>
+      <c r="R51" t="s">
+        <v>70</v>
+      </c>
+      <c r="U51" t="s">
+        <v>330</v>
+      </c>
+      <c r="V51">
+        <v>35375</v>
+      </c>
+      <c r="W51">
+        <v>35375</v>
+      </c>
+      <c r="X51" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y51">
+        <v>64.915000000000006</v>
+      </c>
+      <c r="Z51">
+        <v>-147.89609999999999</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>100</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF51">
+        <v>37642</v>
+      </c>
+      <c r="AK51">
         <v>51</v>
       </c>
-      <c r="P50">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q50">
-        <v>-147.81</v>
-      </c>
-      <c r="R50" t="s">
-        <v>40</v>
-      </c>
-      <c r="S50">
-        <v>530</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK50">
-        <v>56</v>
-      </c>
-      <c r="AL50">
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P51">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="Q51">
-        <v>-147.81</v>
-      </c>
-      <c r="R51" t="s">
-        <v>40</v>
-      </c>
-      <c r="S51">
-        <v>530</v>
-      </c>
-      <c r="AH51">
-        <v>140</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK51">
-        <v>62</v>
-      </c>
       <c r="AL51">
-        <v>1.8000000000000007</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="AM51" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="C52">
-        <v>44</v>
-      </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H52" t="s">
-        <v>298</v>
-      </c>
-      <c r="I52" t="s">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c r="J52" s="3">
-        <v>37747</v>
+        <v>33239</v>
+      </c>
+      <c r="K52" t="s">
+        <v>117</v>
       </c>
       <c r="L52" t="s">
         <v>75</v>
       </c>
       <c r="M52">
-        <v>279453</v>
+        <v>352023</v>
       </c>
       <c r="N52">
-        <v>10436</v>
+        <v>172108</v>
       </c>
       <c r="O52" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="P52">
-        <v>65.5</v>
+        <v>67</v>
       </c>
       <c r="Q52">
-        <v>-148.32</v>
+        <v>-150.1</v>
       </c>
       <c r="R52" t="s">
         <v>70</v>
       </c>
       <c r="U52" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="V52">
-        <v>13282</v>
+        <v>3278</v>
       </c>
       <c r="W52">
-        <v>13282</v>
+        <v>3278</v>
       </c>
       <c r="X52" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="Y52">
-        <v>65.503791473999996</v>
+        <v>67.001999999999995</v>
       </c>
       <c r="Z52">
-        <v>-148.33154240299999</v>
+        <v>-150.09800000000001</v>
       </c>
       <c r="AA52">
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AC52" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="AE52" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AF52">
-        <v>10436</v>
+        <v>172108</v>
       </c>
       <c r="AK52">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="AL52">
-        <v>1.9000000000000004</v>
+        <v>0.90000000000000036</v>
       </c>
     </row>
     <row r="53" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>336</v>
+        <v>244</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>337</v>
-      </c>
-      <c r="I53" t="s">
-        <v>338</v>
-      </c>
-      <c r="J53" s="3">
-        <v>37870</v>
+        <v>246</v>
+      </c>
+      <c r="J53" t="s">
+        <v>247</v>
+      </c>
+      <c r="K53" t="s">
+        <v>68</v>
       </c>
       <c r="L53" t="s">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="M53">
-        <v>279153</v>
+        <v>293752</v>
       </c>
       <c r="N53">
-        <v>10633</v>
+        <v>6929</v>
       </c>
       <c r="O53" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="P53">
-        <v>65.61</v>
+        <v>64.42</v>
       </c>
       <c r="Q53">
-        <v>-148.75</v>
+        <v>-145.06</v>
       </c>
       <c r="R53" t="s">
         <v>70</v>
       </c>
       <c r="U53" t="s">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="V53">
-        <v>12828</v>
+        <v>9682</v>
       </c>
       <c r="W53">
-        <v>12828</v>
+        <v>9682</v>
       </c>
       <c r="X53" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="Y53">
-        <v>65.619683835999993</v>
+        <v>64.429230226000001</v>
       </c>
       <c r="Z53">
-        <v>-148.75144093599999</v>
+        <v>-145.04776560600001</v>
       </c>
       <c r="AA53">
         <v>1</v>
       </c>
       <c r="AB53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC53" t="s">
         <v>62</v>
@@ -5329,1139 +6189,777 @@
         <v>63</v>
       </c>
       <c r="AF53">
-        <v>10633</v>
+        <v>6929</v>
       </c>
       <c r="AK53">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL53">
-        <v>1.9000000000000004</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>342</v>
+        <v>1.6000000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J54" t="s">
-        <v>163</v>
-      </c>
-      <c r="K54" t="s">
-        <v>117</v>
+        <v>275</v>
+      </c>
+      <c r="H54" t="s">
+        <v>337</v>
+      </c>
+      <c r="I54" t="s">
+        <v>338</v>
+      </c>
+      <c r="J54" s="3">
+        <v>37870</v>
       </c>
       <c r="L54" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="M54">
-        <v>316091</v>
+        <v>279153</v>
       </c>
       <c r="N54">
-        <v>148581</v>
+        <v>10633</v>
       </c>
       <c r="O54" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
       <c r="P54">
-        <v>65.27</v>
+        <v>65.61</v>
       </c>
       <c r="Q54">
-        <v>-146.25</v>
+        <v>-148.75</v>
       </c>
       <c r="R54" t="s">
         <v>70</v>
       </c>
       <c r="U54" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="V54">
-        <v>47145</v>
+        <v>12828</v>
       </c>
       <c r="W54">
-        <v>47145</v>
+        <v>12828</v>
       </c>
       <c r="X54" t="s">
-        <v>166</v>
+        <v>341</v>
       </c>
       <c r="Y54">
-        <v>65.272481186999997</v>
+        <v>65.619683835999993</v>
       </c>
       <c r="Z54">
-        <v>-146.24553583900001</v>
+        <v>-148.75144093599999</v>
       </c>
       <c r="AA54">
         <v>1</v>
       </c>
       <c r="AB54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC54" t="s">
         <v>62</v>
       </c>
       <c r="AE54" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="AF54">
-        <v>148581</v>
+        <v>10633</v>
       </c>
       <c r="AK54">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="AL54">
         <v>1.9000000000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AM54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>363</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" s="3">
+        <v>39331</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55">
+        <v>290499</v>
+      </c>
+      <c r="N55">
+        <v>49905</v>
+      </c>
+      <c r="O55" t="s">
+        <v>364</v>
+      </c>
+      <c r="P55">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="Q55">
+        <v>-146.21</v>
+      </c>
+      <c r="R55" t="s">
+        <v>70</v>
+      </c>
+      <c r="U55" t="s">
+        <v>132</v>
+      </c>
+      <c r="V55">
+        <v>45805</v>
+      </c>
+      <c r="W55">
+        <v>45805</v>
+      </c>
+      <c r="X55" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y55">
+        <v>65.351492347000004</v>
+      </c>
+      <c r="Z55">
+        <v>-146.20661139000001</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>6</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF55">
+        <v>49905</v>
+      </c>
+      <c r="AK55">
+        <v>55</v>
+      </c>
+      <c r="AL55">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>64</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>46</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P55">
+      <c r="P56">
         <v>65.010000000000005</v>
       </c>
-      <c r="Q55">
+      <c r="Q56">
         <v>-147.81</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R56" t="s">
         <v>40</v>
       </c>
-      <c r="S55">
+      <c r="S56">
         <v>530</v>
       </c>
-      <c r="AH55">
-        <v>350</v>
-      </c>
-      <c r="AI55" t="s">
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="s">
         <v>50</v>
       </c>
-      <c r="AK55">
-        <v>67</v>
-      </c>
-      <c r="AL55">
-        <v>1.9000000000000004</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="AK56">
+        <v>56</v>
+      </c>
+      <c r="AL56">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>64</v>
+      </c>
+      <c r="G57" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="3">
-        <v>29587</v>
-      </c>
-      <c r="K56" t="s">
-        <v>106</v>
-      </c>
-      <c r="L56" t="s">
-        <v>107</v>
-      </c>
-      <c r="M56">
-        <v>719087</v>
-      </c>
-      <c r="N56">
-        <v>177937</v>
-      </c>
-      <c r="O56" t="s">
-        <v>108</v>
-      </c>
-      <c r="P56">
-        <v>64.930000000000007</v>
-      </c>
-      <c r="Q56">
-        <v>-147.55000000000001</v>
-      </c>
-      <c r="R56" t="s">
-        <v>70</v>
-      </c>
-      <c r="U56" t="s">
-        <v>109</v>
-      </c>
-      <c r="V56">
-        <v>35388</v>
-      </c>
-      <c r="W56">
-        <v>35388</v>
-      </c>
-      <c r="X56" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y56">
-        <v>64.927499999999995</v>
-      </c>
-      <c r="Z56">
-        <v>-147.54580000000001</v>
-      </c>
-      <c r="AA56">
-        <v>1</v>
-      </c>
-      <c r="AB56">
-        <v>100</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF56">
-        <v>177937</v>
-      </c>
-      <c r="AK56">
-        <v>9</v>
-      </c>
-      <c r="AL56">
-        <v>2</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-      <c r="D57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="M57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="Q57">
+        <v>-147.81</v>
+      </c>
+      <c r="R57" t="s">
+        <v>40</v>
+      </c>
+      <c r="S57">
+        <v>530</v>
+      </c>
+      <c r="AH57">
+        <v>10</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK57">
+        <v>57</v>
+      </c>
+      <c r="AL57">
+        <v>1.5</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s">
         <v>46</v>
       </c>
-      <c r="J57" s="3">
-        <v>37506</v>
-      </c>
-      <c r="K57" t="s">
-        <v>174</v>
-      </c>
-      <c r="L57" t="s">
-        <v>175</v>
-      </c>
-      <c r="M57">
-        <v>706768</v>
-      </c>
-      <c r="N57">
-        <v>11582</v>
-      </c>
-      <c r="O57" t="s">
-        <v>176</v>
-      </c>
-      <c r="P57">
-        <v>64.66</v>
-      </c>
-      <c r="Q57">
-        <v>-145.36000000000001</v>
-      </c>
-      <c r="R57" t="s">
-        <v>70</v>
-      </c>
-      <c r="U57" t="s">
-        <v>177</v>
-      </c>
-      <c r="V57">
-        <v>15771</v>
-      </c>
-      <c r="W57">
-        <v>15771</v>
-      </c>
-      <c r="X57" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y57">
-        <v>64.663437685999995</v>
-      </c>
-      <c r="Z57">
-        <v>-145.34956983999999</v>
-      </c>
-      <c r="AA57">
-        <v>1</v>
-      </c>
-      <c r="AB57">
-        <v>8</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF57">
-        <v>11582</v>
-      </c>
-      <c r="AK57">
-        <v>11</v>
-      </c>
-      <c r="AL57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>30</v>
-      </c>
-      <c r="D58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" t="s">
-        <v>349</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" t="s">
-        <v>348</v>
-      </c>
-      <c r="J58" s="3">
-        <v>37870</v>
-      </c>
-      <c r="K58" t="s">
-        <v>350</v>
-      </c>
-      <c r="L58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M58">
-        <v>283894</v>
-      </c>
-      <c r="N58">
-        <v>10623</v>
-      </c>
-      <c r="O58" t="s">
-        <v>274</v>
+      <c r="M58" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="P58">
-        <v>65.59</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q58">
-        <v>-148.75</v>
+        <v>-147.81</v>
       </c>
       <c r="R58" t="s">
-        <v>70</v>
-      </c>
-      <c r="U58" t="s">
-        <v>119</v>
-      </c>
-      <c r="V58">
-        <v>13566</v>
-      </c>
-      <c r="W58">
-        <v>13566</v>
-      </c>
-      <c r="X58" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y58">
-        <v>65.591156604000005</v>
-      </c>
-      <c r="Z58">
-        <v>-148.748848302</v>
-      </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58">
-        <v>5</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF58">
-        <v>10623</v>
+        <v>40</v>
+      </c>
+      <c r="S58">
+        <v>530</v>
+      </c>
+      <c r="AH58">
+        <v>25</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>50</v>
       </c>
       <c r="AK58">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="AL58">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P59">
-        <v>65.05</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q59">
-        <v>-147.53</v>
+        <v>-147.81</v>
       </c>
       <c r="R59" t="s">
         <v>40</v>
       </c>
       <c r="S59">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="AH59">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK59">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="AL59">
-        <v>2</v>
+        <v>1.3000000000000007</v>
       </c>
       <c r="AM59" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>102</v>
-      </c>
-      <c r="D60" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" t="s">
-        <v>186</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I60" t="s">
-        <v>188</v>
-      </c>
-      <c r="J60" t="s">
-        <v>189</v>
-      </c>
-      <c r="K60" t="s">
-        <v>190</v>
-      </c>
-      <c r="L60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="Q60">
+        <v>-147.81</v>
+      </c>
+      <c r="R60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S60">
+        <v>530</v>
+      </c>
+      <c r="AH60">
         <v>75</v>
       </c>
-      <c r="M60">
-        <v>291903</v>
-      </c>
-      <c r="N60">
-        <v>15966</v>
-      </c>
-      <c r="O60" t="s">
-        <v>191</v>
-      </c>
-      <c r="P60">
-        <v>64.61</v>
-      </c>
-      <c r="Q60">
-        <v>-144.94</v>
-      </c>
-      <c r="R60" t="s">
-        <v>70</v>
-      </c>
-      <c r="U60" t="s">
-        <v>192</v>
-      </c>
-      <c r="V60">
-        <v>16136</v>
-      </c>
-      <c r="W60">
-        <v>16136</v>
-      </c>
-      <c r="X60" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y60">
-        <v>64.611357858000005</v>
-      </c>
-      <c r="Z60">
-        <v>-144.94042800400001</v>
-      </c>
-      <c r="AA60">
-        <v>1</v>
-      </c>
-      <c r="AB60">
-        <v>6</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF60">
-        <v>15966</v>
+      <c r="AI60" t="s">
+        <v>50</v>
       </c>
       <c r="AK60">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AL60">
-        <v>2.1000000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>48</v>
-      </c>
-      <c r="D61" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" t="s">
-        <v>378</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I61" t="s">
-        <v>214</v>
-      </c>
-      <c r="J61" t="s">
-        <v>215</v>
-      </c>
-      <c r="L61" t="s">
-        <v>75</v>
-      </c>
-      <c r="M61">
-        <v>371834</v>
-      </c>
-      <c r="N61">
-        <v>111443</v>
-      </c>
-      <c r="O61" t="s">
-        <v>216</v>
+        <v>64</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="P61">
-        <v>65.36</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q61">
-        <v>-148.26</v>
+        <v>-147.81</v>
       </c>
       <c r="R61" t="s">
-        <v>70</v>
-      </c>
-      <c r="U61" t="s">
-        <v>217</v>
-      </c>
-      <c r="V61">
-        <v>115448</v>
-      </c>
-      <c r="W61">
-        <v>115448</v>
-      </c>
-      <c r="X61" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y61">
-        <v>65.363929999999996</v>
-      </c>
-      <c r="Z61">
-        <v>-148.25543999999999</v>
-      </c>
-      <c r="AA61">
-        <v>1</v>
-      </c>
-      <c r="AB61">
-        <v>4</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF61">
-        <v>111443</v>
+        <v>40</v>
+      </c>
+      <c r="S61">
+        <v>530</v>
+      </c>
+      <c r="AH61">
+        <v>100</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>50</v>
       </c>
       <c r="AK61">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="AL61">
-        <v>2.1000000000000005</v>
+        <v>1.6000000000000005</v>
       </c>
       <c r="AM61" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P62">
-        <v>64.98</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q62">
-        <v>-147.32</v>
+        <v>-147.81</v>
       </c>
       <c r="R62" t="s">
         <v>40</v>
       </c>
       <c r="S62">
-        <v>122</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>47</v>
+        <v>530</v>
       </c>
       <c r="AH62">
-        <v>75</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>44</v>
+        <v>140</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>50</v>
       </c>
       <c r="AK62">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AL62">
-        <v>2.1000000000000005</v>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P63">
-        <v>64.98</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q63">
-        <v>-147.32</v>
+        <v>-147.81</v>
       </c>
       <c r="R63" t="s">
         <v>40</v>
       </c>
       <c r="S63">
-        <v>122</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>47</v>
+        <v>530</v>
       </c>
       <c r="AH63">
-        <v>122</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>44</v>
+        <v>175</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>50</v>
       </c>
       <c r="AK63">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AL63">
-        <v>2.1000000000000005</v>
+        <v>1.1000000000000005</v>
       </c>
       <c r="AM63" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P64">
-        <v>65.05</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q64">
-        <v>-147.53</v>
+        <v>-147.81</v>
       </c>
       <c r="R64" t="s">
         <v>40</v>
       </c>
       <c r="S64">
+        <v>530</v>
+      </c>
+      <c r="AH64">
+        <v>200</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK64">
+        <v>64</v>
+      </c>
+      <c r="AL64">
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="Q65">
+        <v>-147.81</v>
+      </c>
+      <c r="R65" t="s">
+        <v>40</v>
+      </c>
+      <c r="S65">
+        <v>530</v>
+      </c>
+      <c r="AH65">
+        <v>250</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK65">
+        <v>65</v>
+      </c>
+      <c r="AL65">
+        <v>1.5</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="Q66">
+        <v>-147.81</v>
+      </c>
+      <c r="R66" t="s">
+        <v>40</v>
+      </c>
+      <c r="S66">
+        <v>530</v>
+      </c>
+      <c r="AH66">
         <v>300</v>
       </c>
-      <c r="AH64">
-        <v>30</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK64">
-        <v>78</v>
-      </c>
-      <c r="AL64">
-        <v>2.1000000000000005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" t="s">
-        <v>179</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H65" t="s">
-        <v>182</v>
-      </c>
-      <c r="J65" t="s">
-        <v>183</v>
-      </c>
-      <c r="K65" t="s">
-        <v>184</v>
-      </c>
-      <c r="L65" t="s">
-        <v>75</v>
-      </c>
-      <c r="M65">
-        <v>707019</v>
-      </c>
-      <c r="N65">
-        <v>16128</v>
-      </c>
-      <c r="O65" t="s">
-        <v>185</v>
-      </c>
-      <c r="P65">
-        <v>64.91</v>
-      </c>
-      <c r="Q65">
-        <v>-144.22999999999999</v>
-      </c>
-      <c r="R65" t="s">
-        <v>70</v>
-      </c>
-      <c r="U65" t="s">
-        <v>177</v>
-      </c>
-      <c r="V65">
-        <v>11777</v>
-      </c>
-      <c r="W65">
-        <v>11777</v>
-      </c>
-      <c r="X65" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y65">
-        <v>64.905525462</v>
-      </c>
-      <c r="Z65">
-        <v>-144.22471035800001</v>
-      </c>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65">
-        <v>4</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF65">
-        <v>16128</v>
-      </c>
-      <c r="AK65">
-        <v>12</v>
-      </c>
-      <c r="AL65">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" t="s">
-        <v>292</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J66" s="3">
-        <v>33239</v>
-      </c>
-      <c r="L66" t="s">
-        <v>75</v>
-      </c>
-      <c r="M66">
-        <v>288163</v>
-      </c>
-      <c r="N66">
-        <v>3588</v>
-      </c>
-      <c r="O66" t="s">
-        <v>294</v>
-      </c>
-      <c r="P66">
+      <c r="AI66" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK66">
+        <v>66</v>
+      </c>
+      <c r="AL66">
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="Q67">
+        <v>-147.81</v>
+      </c>
+      <c r="R67" t="s">
+        <v>40</v>
+      </c>
+      <c r="S67">
+        <v>530</v>
+      </c>
+      <c r="AH67">
+        <v>350</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK67">
         <v>67</v>
       </c>
-      <c r="Q66">
-        <v>-150.1</v>
-      </c>
-      <c r="R66" t="s">
-        <v>70</v>
-      </c>
-      <c r="U66" t="s">
-        <v>91</v>
-      </c>
-      <c r="V66">
-        <v>3271</v>
-      </c>
-      <c r="W66">
-        <v>3271</v>
-      </c>
-      <c r="X66" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y66">
-        <v>67.001999999999995</v>
-      </c>
-      <c r="Z66">
-        <v>-150.09800000000001</v>
-      </c>
-      <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66">
-        <v>100</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF66">
-        <v>3588</v>
-      </c>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5">
+      <c r="AL67">
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>49</v>
       </c>
-      <c r="AL66">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AM66" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>80</v>
-      </c>
-      <c r="D67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" t="s">
-        <v>363</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="G68" t="s">
         <v>46</v>
       </c>
-      <c r="J67" s="3">
-        <v>39331</v>
-      </c>
-      <c r="L67" t="s">
-        <v>75</v>
-      </c>
-      <c r="M67">
-        <v>290499</v>
-      </c>
-      <c r="N67">
-        <v>49905</v>
-      </c>
-      <c r="O67" t="s">
-        <v>364</v>
-      </c>
-      <c r="P67">
-        <v>65.349999999999994</v>
-      </c>
-      <c r="Q67">
-        <v>-146.21</v>
-      </c>
-      <c r="R67" t="s">
-        <v>70</v>
-      </c>
-      <c r="U67" t="s">
-        <v>132</v>
-      </c>
-      <c r="V67">
-        <v>45805</v>
-      </c>
-      <c r="W67">
-        <v>45805</v>
-      </c>
-      <c r="X67" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y67">
-        <v>65.351492347000004</v>
-      </c>
-      <c r="Z67">
-        <v>-146.20661139000001</v>
-      </c>
-      <c r="AA67">
-        <v>1</v>
-      </c>
-      <c r="AB67">
-        <v>6</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF67">
-        <v>49905</v>
-      </c>
-      <c r="AK67">
-        <v>55</v>
-      </c>
-      <c r="AL67">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39" ht="289" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J68" s="3">
-        <v>40909</v>
-      </c>
-      <c r="L68" t="s">
-        <v>75</v>
-      </c>
-      <c r="M68">
-        <v>727788</v>
-      </c>
-      <c r="N68">
-        <v>69130</v>
-      </c>
-      <c r="O68" t="s">
-        <v>136</v>
+      <c r="M68" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="P68">
-        <v>66.62</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q68">
-        <v>-150.07</v>
+        <v>-147.81</v>
       </c>
       <c r="R68" t="s">
-        <v>70</v>
-      </c>
-      <c r="U68" t="s">
-        <v>96</v>
-      </c>
-      <c r="V68">
-        <v>70543</v>
-      </c>
-      <c r="W68">
-        <v>70543</v>
-      </c>
-      <c r="X68" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y68">
-        <v>66.619855000000001</v>
-      </c>
-      <c r="Z68">
-        <v>-150.06565599999999</v>
-      </c>
-      <c r="AA68">
-        <v>1</v>
-      </c>
-      <c r="AB68">
-        <v>1</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF68">
-        <v>69130</v>
+        <v>40</v>
+      </c>
+      <c r="S68">
+        <v>530</v>
+      </c>
+      <c r="AH68">
+        <v>400</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>50</v>
       </c>
       <c r="AK68">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="AL68">
-        <v>2.3000000000000007</v>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" s="1"/>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -6469,21 +6967,21 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69">
-        <v>65.05</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q69">
-        <v>-147.53</v>
+        <v>-147.81</v>
       </c>
       <c r="R69" t="s">
         <v>40</v>
       </c>
       <c r="S69">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="T69"/>
       <c r="U69"/>
@@ -6500,37 +6998,37 @@
       <c r="AF69"/>
       <c r="AG69"/>
       <c r="AH69">
+        <v>450</v>
+      </c>
+      <c r="AI69" t="s">
         <v>50</v>
       </c>
-      <c r="AI69" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>44</v>
-      </c>
+      <c r="AJ69"/>
       <c r="AK69">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AL69">
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="AM69"/>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="70" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" s="1"/>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
@@ -6538,21 +7036,21 @@
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70">
-        <v>65.05</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="Q70">
-        <v>-147.53</v>
+        <v>-147.81</v>
       </c>
       <c r="R70" t="s">
         <v>40</v>
       </c>
       <c r="S70">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="T70"/>
       <c r="U70"/>
@@ -6569,202 +7067,152 @@
       <c r="AF70"/>
       <c r="AG70"/>
       <c r="AH70">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AI70" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ70" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ70"/>
+      <c r="AK70">
+        <v>70</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P71">
+        <v>64.98</v>
+      </c>
+      <c r="Q71">
+        <v>-147.32</v>
+      </c>
+      <c r="R71" t="s">
+        <v>40</v>
+      </c>
+      <c r="S71">
+        <v>122</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH71">
+        <v>10</v>
+      </c>
+      <c r="AJ71" t="s">
         <v>44</v>
       </c>
-      <c r="AK70">
-        <v>83</v>
-      </c>
-      <c r="AL70">
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="AM70"/>
-    </row>
-    <row r="71" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>47</v>
-      </c>
-      <c r="D71" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71" t="s">
-        <v>321</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H71" t="s">
-        <v>254</v>
-      </c>
-      <c r="I71" t="s">
-        <v>255</v>
-      </c>
-      <c r="J71" t="s">
-        <v>215</v>
-      </c>
-      <c r="L71" t="s">
-        <v>75</v>
-      </c>
-      <c r="M71">
-        <v>366955</v>
-      </c>
-      <c r="N71">
-        <v>111206</v>
-      </c>
-      <c r="O71" t="s">
-        <v>256</v>
-      </c>
-      <c r="P71">
-        <v>65.430000000000007</v>
-      </c>
-      <c r="Q71">
-        <v>-148.35</v>
-      </c>
-      <c r="R71" t="s">
-        <v>70</v>
-      </c>
-      <c r="U71" t="s">
-        <v>217</v>
-      </c>
-      <c r="V71">
-        <v>115265</v>
-      </c>
-      <c r="W71">
-        <v>115265</v>
-      </c>
-      <c r="X71" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y71">
-        <v>65.426670000000001</v>
-      </c>
-      <c r="Z71">
-        <v>-148.34280000000001</v>
-      </c>
-      <c r="AA71">
-        <v>1</v>
-      </c>
-      <c r="AB71">
-        <v>6</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF71">
-        <v>111206</v>
-      </c>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
       <c r="AK71">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AL71">
-        <v>2.4000000000000004</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P72">
-        <v>65.05</v>
+        <v>64.98</v>
       </c>
       <c r="Q72">
-        <v>-147.53</v>
+        <v>-147.32</v>
       </c>
       <c r="R72" t="s">
         <v>40</v>
       </c>
       <c r="S72">
-        <v>300</v>
+        <v>122</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>47</v>
       </c>
       <c r="AH72">
-        <v>300</v>
-      </c>
-      <c r="AI72" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="AJ72" t="s">
         <v>44</v>
       </c>
       <c r="AK72">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AL72">
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="AM72" t="s">
-        <v>406</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P73">
-        <v>65.010000000000005</v>
+        <v>64.98</v>
       </c>
       <c r="Q73">
-        <v>-147.81</v>
+        <v>-147.32</v>
       </c>
       <c r="R73" t="s">
         <v>40</v>
       </c>
       <c r="S73">
-        <v>530</v>
+        <v>122</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>47</v>
       </c>
       <c r="AH73">
-        <v>450</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>44</v>
       </c>
       <c r="AK73">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AL73">
         <v>2.6000000000000005</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.2">
@@ -6799,819 +7247,530 @@
         <v>47</v>
       </c>
       <c r="AH74">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AJ74" t="s">
         <v>44</v>
       </c>
       <c r="AK74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL74">
-        <v>2.6000000000000005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>52</v>
-      </c>
-      <c r="D75" t="s">
-        <v>66</v>
-      </c>
-      <c r="E75" t="s">
-        <v>312</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H75" t="s">
-        <v>68</v>
-      </c>
-      <c r="J75" s="3">
-        <v>35431</v>
-      </c>
-      <c r="K75" t="s">
-        <v>68</v>
-      </c>
-      <c r="L75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P75">
+        <v>64.98</v>
+      </c>
+      <c r="Q75">
+        <v>-147.32</v>
+      </c>
+      <c r="R75" t="s">
+        <v>40</v>
+      </c>
+      <c r="S75">
+        <v>122</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH75">
         <v>75</v>
       </c>
-      <c r="M75">
-        <v>338261</v>
-      </c>
-      <c r="N75">
-        <v>22318</v>
-      </c>
-      <c r="O75" t="s">
-        <v>69</v>
-      </c>
-      <c r="P75">
-        <v>65.22</v>
-      </c>
-      <c r="Q75">
-        <v>-150.19999999999999</v>
-      </c>
-      <c r="R75" t="s">
-        <v>70</v>
-      </c>
-      <c r="U75" t="s">
-        <v>71</v>
-      </c>
-      <c r="V75">
-        <v>21480</v>
-      </c>
-      <c r="W75">
-        <v>21480</v>
-      </c>
-      <c r="X75" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y75">
-        <v>65.224999999999994</v>
-      </c>
-      <c r="Z75">
-        <v>-150.19309999999999</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
-      </c>
-      <c r="AB75">
-        <v>60</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF75">
-        <v>22318</v>
+      <c r="AJ75" t="s">
+        <v>44</v>
       </c>
       <c r="AK75">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AL75">
-        <v>2.7</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>315</v>
+        <v>2.1000000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P76">
-        <v>65.05</v>
+        <v>64.98</v>
       </c>
       <c r="Q76">
-        <v>-147.53</v>
+        <v>-147.32</v>
       </c>
       <c r="R76" t="s">
         <v>40</v>
       </c>
       <c r="S76">
-        <v>300</v>
+        <v>122</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>47</v>
       </c>
       <c r="AH76">
-        <v>75</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s">
         <v>44</v>
       </c>
       <c r="AK76">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AL76">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39" ht="289" x14ac:dyDescent="0.2">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>95</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P77">
+        <v>64.98</v>
+      </c>
+      <c r="Q77">
+        <v>-147.32</v>
+      </c>
+      <c r="R77" t="s">
+        <v>40</v>
+      </c>
+      <c r="S77">
+        <v>122</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH77">
+        <v>122</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK77">
+        <v>77</v>
+      </c>
+      <c r="AL77">
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="G78" t="s">
+        <v>41</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P78">
+        <v>65.05</v>
+      </c>
+      <c r="Q78">
+        <v>-147.53</v>
+      </c>
+      <c r="R78" t="s">
+        <v>40</v>
+      </c>
+      <c r="S78">
+        <v>300</v>
+      </c>
+      <c r="AH78">
+        <v>30</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK78">
         <v>78</v>
       </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>79</v>
-      </c>
-      <c r="E77" t="s">
-        <v>80</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J77" s="3">
-        <v>40909</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="AL78">
+        <v>2.1000000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>75</v>
       </c>
-      <c r="M77">
-        <v>673485</v>
-      </c>
-      <c r="N77">
-        <v>69130</v>
-      </c>
-      <c r="O77" t="s">
-        <v>251</v>
-      </c>
-      <c r="P77">
-        <v>66.62</v>
-      </c>
-      <c r="Q77">
-        <v>-150.07</v>
-      </c>
-      <c r="R77" t="s">
-        <v>70</v>
-      </c>
-      <c r="U77" t="s">
-        <v>100</v>
-      </c>
-      <c r="V77">
-        <v>70543</v>
-      </c>
-      <c r="W77">
-        <v>70543</v>
-      </c>
-      <c r="X77" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y77">
-        <v>66.619855000000001</v>
-      </c>
-      <c r="Z77">
-        <v>-150.06565599999999</v>
-      </c>
-      <c r="AA77">
-        <v>1</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF77">
-        <v>69130</v>
-      </c>
-      <c r="AK77">
-        <v>33</v>
-      </c>
-      <c r="AL77">
-        <v>2.8000000000000007</v>
-      </c>
-      <c r="AM77" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" t="s">
-        <v>357</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" t="s">
-        <v>139</v>
-      </c>
-      <c r="J78" t="s">
-        <v>140</v>
-      </c>
-      <c r="L78" t="s">
-        <v>75</v>
-      </c>
-      <c r="M78">
-        <v>279209</v>
-      </c>
-      <c r="N78">
-        <v>11091</v>
-      </c>
-      <c r="O78" t="s">
-        <v>141</v>
-      </c>
-      <c r="P78">
-        <v>65.52</v>
-      </c>
-      <c r="Q78">
-        <v>-148.52000000000001</v>
-      </c>
-      <c r="R78" t="s">
-        <v>70</v>
-      </c>
-      <c r="U78" t="s">
-        <v>142</v>
-      </c>
-      <c r="V78">
-        <v>12626</v>
-      </c>
-      <c r="W78">
-        <v>12626</v>
-      </c>
-      <c r="X78" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y78">
-        <v>65.520915958000003</v>
-      </c>
-      <c r="Z78">
-        <v>-148.53631453599999</v>
-      </c>
-      <c r="AA78">
-        <v>1</v>
-      </c>
-      <c r="AB78">
-        <v>9</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF78">
-        <v>11091</v>
-      </c>
-      <c r="AK78">
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" s="1"/>
+      <c r="G79" t="s">
         <v>41</v>
-      </c>
-      <c r="AL78">
-        <v>2.8000000000000007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:39" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>28</v>
-      </c>
-      <c r="D79" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79" s="3">
-        <v>40909</v>
-      </c>
+      <c r="J79"/>
       <c r="K79"/>
-      <c r="L79" t="s">
+      <c r="L79"/>
+      <c r="M79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79">
+        <v>65.05</v>
+      </c>
+      <c r="Q79">
+        <v>-147.53</v>
+      </c>
+      <c r="R79" t="s">
+        <v>40</v>
+      </c>
+      <c r="S79">
+        <v>300</v>
+      </c>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79">
+        <v>50</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK79">
+        <v>79</v>
+      </c>
+      <c r="AL79">
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="AM79"/>
+    </row>
+    <row r="80" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>75</v>
       </c>
-      <c r="M79">
-        <v>674509</v>
-      </c>
-      <c r="N79">
-        <v>69247</v>
-      </c>
-      <c r="O79" t="s">
-        <v>99</v>
-      </c>
-      <c r="P79">
-        <v>66.069999999999993</v>
-      </c>
-      <c r="Q79">
-        <v>-149.91999999999999</v>
-      </c>
-      <c r="R79" t="s">
-        <v>70</v>
-      </c>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79" t="s">
-        <v>100</v>
-      </c>
-      <c r="V79">
-        <v>70762</v>
-      </c>
-      <c r="W79">
-        <v>70762</v>
-      </c>
-      <c r="X79" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y79">
-        <v>66.073408000000001</v>
-      </c>
-      <c r="Z79">
-        <v>-149.920075</v>
-      </c>
-      <c r="AA79">
-        <v>1</v>
-      </c>
-      <c r="AB79">
-        <v>1</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD79"/>
-      <c r="AE79" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF79">
-        <v>69247</v>
-      </c>
-      <c r="AG79"/>
-      <c r="AH79"/>
-      <c r="AI79"/>
-      <c r="AJ79"/>
-      <c r="AK79">
-        <v>30</v>
-      </c>
-      <c r="AL79">
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="AM79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:39" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>232</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" t="s">
-        <v>233</v>
-      </c>
+      <c r="D80"/>
+      <c r="E80"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H80" t="s">
-        <v>234</v>
-      </c>
-      <c r="I80" t="s">
-        <v>235</v>
-      </c>
-      <c r="J80" t="s">
-        <v>236</v>
-      </c>
+      <c r="G80" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
       <c r="K80"/>
-      <c r="L80" t="s">
+      <c r="L80"/>
+      <c r="M80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80">
+        <v>65.05</v>
+      </c>
+      <c r="Q80">
+        <v>-147.53</v>
+      </c>
+      <c r="R80" t="s">
+        <v>40</v>
+      </c>
+      <c r="S80">
+        <v>300</v>
+      </c>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80">
         <v>75</v>
       </c>
-      <c r="M80">
-        <v>284788</v>
-      </c>
-      <c r="N80">
-        <v>51139</v>
-      </c>
-      <c r="O80" t="s">
-        <v>237</v>
-      </c>
-      <c r="P80">
-        <v>65.209999999999994</v>
-      </c>
-      <c r="Q80">
-        <v>-146.38</v>
-      </c>
-      <c r="R80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80" t="s">
-        <v>132</v>
-      </c>
-      <c r="V80">
-        <v>46137</v>
-      </c>
-      <c r="W80">
-        <v>46137</v>
-      </c>
-      <c r="X80" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y80">
-        <v>65.214364318999998</v>
-      </c>
-      <c r="Z80">
-        <v>-146.38537564800001</v>
-      </c>
-      <c r="AA80">
-        <v>1</v>
-      </c>
-      <c r="AB80">
-        <v>6</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD80"/>
-      <c r="AE80" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF80">
-        <v>51139</v>
-      </c>
-      <c r="AG80"/>
-      <c r="AH80"/>
-      <c r="AK80" s="4">
-        <v>24</v>
+      <c r="AI80" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK80">
+        <v>80</v>
       </c>
       <c r="AL80">
-        <v>2.9000000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:39" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>2.7</v>
+      </c>
+      <c r="AM80"/>
+    </row>
+    <row r="81" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" t="s">
-        <v>351</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H81" t="s">
-        <v>352</v>
-      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81"/>
       <c r="I81"/>
-      <c r="J81" s="3">
-        <v>37870</v>
-      </c>
-      <c r="K81" t="s">
-        <v>117</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81">
+        <v>65.05</v>
+      </c>
+      <c r="Q81">
+        <v>-147.53</v>
+      </c>
+      <c r="R81" t="s">
+        <v>40</v>
+      </c>
+      <c r="S81">
+        <v>300</v>
+      </c>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81">
+        <v>110</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK81">
+        <v>81</v>
+      </c>
+      <c r="AL81">
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="AM81"/>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>75</v>
       </c>
-      <c r="M81">
-        <v>336571</v>
-      </c>
-      <c r="N81">
-        <v>148198</v>
-      </c>
-      <c r="O81" t="s">
-        <v>118</v>
-      </c>
-      <c r="P81">
-        <v>65.59</v>
-      </c>
-      <c r="Q81">
-        <v>-148.75</v>
-      </c>
-      <c r="R81" t="s">
-        <v>70</v>
-      </c>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81" t="s">
-        <v>119</v>
-      </c>
-      <c r="V81">
-        <v>13568</v>
-      </c>
-      <c r="W81">
-        <v>13568</v>
-      </c>
-      <c r="X81" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y81">
-        <v>65.589947453999997</v>
-      </c>
-      <c r="Z81">
-        <v>-148.744732511</v>
-      </c>
-      <c r="AA81">
-        <v>1</v>
-      </c>
-      <c r="AB81">
-        <v>5</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD81"/>
-      <c r="AE81" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF81">
-        <v>148198</v>
-      </c>
-      <c r="AG81"/>
-      <c r="AH81"/>
-      <c r="AI81"/>
-      <c r="AJ81"/>
-      <c r="AK81">
-        <v>22</v>
-      </c>
-      <c r="AL81">
-        <v>3</v>
-      </c>
-      <c r="AM81"/>
-    </row>
-    <row r="82" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82">
-        <v>5</v>
-      </c>
-      <c r="C82">
-        <v>34</v>
-      </c>
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" t="s">
-        <v>361</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J82" s="3">
-        <v>37870</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="G82" t="s">
+        <v>41</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P82">
+        <v>65.05</v>
+      </c>
+      <c r="Q82">
+        <v>-147.53</v>
+      </c>
+      <c r="R82" t="s">
+        <v>40</v>
+      </c>
+      <c r="S82">
+        <v>300</v>
+      </c>
+      <c r="AH82">
+        <v>150</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK82">
+        <v>82</v>
+      </c>
+      <c r="AL82">
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>75</v>
       </c>
-      <c r="M82">
-        <v>283649</v>
-      </c>
-      <c r="N82">
-        <v>10673</v>
-      </c>
-      <c r="O82" t="s">
-        <v>291</v>
-      </c>
-      <c r="P82">
-        <v>65.62</v>
-      </c>
-      <c r="Q82">
-        <v>-148.65</v>
-      </c>
-      <c r="R82" t="s">
-        <v>70</v>
-      </c>
-      <c r="U82" t="s">
-        <v>142</v>
-      </c>
-      <c r="V82">
-        <v>12860</v>
-      </c>
-      <c r="W82">
-        <v>12860</v>
-      </c>
-      <c r="X82" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y82">
-        <v>65.623428282000006</v>
-      </c>
-      <c r="Z82">
-        <v>-148.63343555500001</v>
-      </c>
-      <c r="AA82">
-        <v>1</v>
-      </c>
-      <c r="AB82">
-        <v>3</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF82">
-        <v>10673</v>
-      </c>
-      <c r="AK82">
-        <v>31</v>
-      </c>
-      <c r="AL82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>223</v>
-      </c>
-      <c r="B83">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>78</v>
-      </c>
-      <c r="D83" t="s">
-        <v>228</v>
-      </c>
-      <c r="E83" t="s">
-        <v>386</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J83" s="3">
-        <v>31778</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P83">
+        <v>65.05</v>
+      </c>
+      <c r="Q83">
+        <v>-147.53</v>
+      </c>
+      <c r="R83" t="s">
+        <v>40</v>
+      </c>
+      <c r="S83">
+        <v>300</v>
+      </c>
+      <c r="AH83">
+        <v>200</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK83">
+        <v>83</v>
+      </c>
+      <c r="AL83">
+        <v>2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>75</v>
       </c>
-      <c r="M83">
-        <v>333833</v>
-      </c>
-      <c r="N83">
-        <v>168905</v>
-      </c>
-      <c r="O83" t="s">
-        <v>229</v>
-      </c>
-      <c r="P83">
-        <v>65.44</v>
-      </c>
-      <c r="Q83">
-        <v>-146.16999999999999</v>
-      </c>
-      <c r="R83" t="s">
-        <v>70</v>
-      </c>
-      <c r="U83" t="s">
-        <v>148</v>
-      </c>
-      <c r="V83">
-        <v>29932</v>
-      </c>
-      <c r="W83">
-        <v>29932</v>
-      </c>
-      <c r="X83" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y83">
-        <v>65.437364508000002</v>
-      </c>
-      <c r="Z83">
-        <v>-146.16404205500001</v>
-      </c>
-      <c r="AA83">
-        <v>1</v>
-      </c>
-      <c r="AB83">
-        <v>100</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF83">
-        <v>34538</v>
-      </c>
-      <c r="AK83">
-        <v>42</v>
-      </c>
-      <c r="AL83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
       <c r="D84"/>
-      <c r="E84" t="s">
-        <v>395</v>
-      </c>
+      <c r="E84"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
-      <c r="M84"/>
+      <c r="M84" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="N84"/>
-      <c r="O84" t="s">
-        <v>83</v>
-      </c>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
+      <c r="O84"/>
+      <c r="P84">
+        <v>65.05</v>
+      </c>
+      <c r="Q84">
+        <v>-147.53</v>
+      </c>
+      <c r="R84" t="s">
+        <v>40</v>
+      </c>
+      <c r="S84">
+        <v>300</v>
+      </c>
       <c r="T84"/>
       <c r="U84"/>
       <c r="V84"/>
@@ -7626,291 +7785,192 @@
       <c r="AE84"/>
       <c r="AF84"/>
       <c r="AG84"/>
-      <c r="AH84"/>
-      <c r="AI84"/>
-      <c r="AJ84"/>
+      <c r="AH84">
+        <v>250</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>44</v>
+      </c>
       <c r="AK84">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="AL84">
-        <v>3.0999999999999996</v>
-      </c>
-      <c r="AM84" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="85" spans="1:39" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AM84"/>
+    </row>
+    <row r="85" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" t="s">
-        <v>240</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>82</v>
+      <c r="G85" t="s">
+        <v>41</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="J85" s="3">
-        <v>40909</v>
-      </c>
-      <c r="K85" t="s">
-        <v>241</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85">
+        <v>65.05</v>
+      </c>
+      <c r="Q85">
+        <v>-147.53</v>
+      </c>
+      <c r="R85" t="s">
+        <v>40</v>
+      </c>
+      <c r="S85">
+        <v>300</v>
+      </c>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85">
+        <v>300</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK85">
+        <v>85</v>
+      </c>
+      <c r="AL85">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>75</v>
       </c>
-      <c r="M85">
-        <v>673692</v>
-      </c>
-      <c r="N85">
-        <v>82876</v>
-      </c>
-      <c r="O85" t="s">
-        <v>242</v>
-      </c>
-      <c r="P85">
-        <v>66.260000000000005</v>
-      </c>
-      <c r="Q85">
-        <v>-150.33000000000001</v>
-      </c>
-      <c r="R85" t="s">
-        <v>70</v>
-      </c>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85" t="s">
-        <v>100</v>
-      </c>
-      <c r="V85">
-        <v>84203</v>
-      </c>
-      <c r="W85">
-        <v>84203</v>
-      </c>
-      <c r="X85" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y85">
-        <v>66.258064000000005</v>
-      </c>
-      <c r="Z85">
-        <v>-150.32506100000001</v>
-      </c>
-      <c r="AA85">
-        <v>1</v>
-      </c>
-      <c r="AB85">
-        <v>8</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD85"/>
-      <c r="AE85" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF85">
-        <v>82876</v>
-      </c>
-      <c r="AG85"/>
-      <c r="AH85"/>
-      <c r="AI85"/>
-      <c r="AJ85"/>
-      <c r="AK85">
-        <v>35</v>
-      </c>
-      <c r="AL85">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="AM85" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <v>29</v>
-      </c>
-      <c r="D86" t="s">
-        <v>79</v>
-      </c>
-      <c r="E86" t="s">
-        <v>262</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J86" s="3">
-        <v>40909</v>
-      </c>
-      <c r="K86" t="s">
-        <v>68</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="G86" t="s">
+        <v>41</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P86">
+        <v>65.05</v>
+      </c>
+      <c r="Q86">
+        <v>-147.53</v>
+      </c>
+      <c r="R86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S86">
+        <v>300</v>
+      </c>
+      <c r="AH86">
+        <v>55</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK86">
+        <v>86</v>
+      </c>
+      <c r="AL86">
+        <v>2</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>75</v>
       </c>
-      <c r="M86">
-        <v>673589</v>
-      </c>
-      <c r="N86">
-        <v>144358</v>
-      </c>
-      <c r="O86" t="s">
-        <v>263</v>
-      </c>
-      <c r="P86">
-        <v>66.03</v>
-      </c>
-      <c r="Q86">
-        <v>-150.13</v>
-      </c>
-      <c r="R86" t="s">
-        <v>70</v>
-      </c>
-      <c r="U86" t="s">
-        <v>100</v>
-      </c>
-      <c r="V86">
-        <v>70078</v>
-      </c>
-      <c r="W86">
-        <v>70078</v>
-      </c>
-      <c r="X86" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y86">
-        <v>66.033336840000004</v>
-      </c>
-      <c r="Z86">
-        <v>-150.1267259</v>
-      </c>
-      <c r="AA86">
-        <v>1</v>
-      </c>
-      <c r="AB86">
-        <v>1</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF86">
-        <v>144358</v>
-      </c>
-      <c r="AK86">
-        <v>38</v>
-      </c>
-      <c r="AL86">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="87" spans="1:39" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87">
-        <v>58</v>
-      </c>
-      <c r="D87" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" t="s">
-        <v>328</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J87" s="3">
-        <v>29587</v>
-      </c>
-      <c r="L87" t="s">
-        <v>75</v>
-      </c>
-      <c r="M87">
-        <v>285511</v>
-      </c>
-      <c r="N87">
-        <v>37642</v>
-      </c>
-      <c r="O87" t="s">
-        <v>329</v>
+      <c r="G87" t="s">
+        <v>41</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P87">
-        <v>64.91</v>
+        <v>65.05</v>
       </c>
       <c r="Q87">
-        <v>-147.9</v>
+        <v>-147.53</v>
       </c>
       <c r="R87" t="s">
-        <v>70</v>
-      </c>
-      <c r="U87" t="s">
-        <v>330</v>
-      </c>
-      <c r="V87">
-        <v>35375</v>
-      </c>
-      <c r="W87">
-        <v>35375</v>
-      </c>
-      <c r="X87" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y87">
-        <v>64.915000000000006</v>
-      </c>
-      <c r="Z87">
-        <v>-147.89609999999999</v>
-      </c>
-      <c r="AA87">
-        <v>1</v>
-      </c>
-      <c r="AB87">
-        <v>100</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF87">
-        <v>37642</v>
+        <v>40</v>
+      </c>
+      <c r="S87">
+        <v>300</v>
+      </c>
+      <c r="AH87">
+        <v>298</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>44</v>
       </c>
       <c r="AK87">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="AL87">
-        <v>4.2000000000000011</v>
+        <v>1.3000000000000007</v>
       </c>
       <c r="AM87" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM87">
+    <sortCondition ref="AK2:AK87"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>